--- a/DOCS/Jeux de données.xlsx
+++ b/DOCS/Jeux de données.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1701871\Documents\GTA\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34F4B05-754B-4D01-84EF-6037502C0A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967C3932-7827-4AB3-8ADE-5D3004D07ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="données" sheetId="1" r:id="rId1"/>
     <sheet name="Users" sheetId="4" r:id="rId2"/>
     <sheet name="Presta" sheetId="2" r:id="rId3"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId4"/>
-    <sheet name="Contrat" sheetId="5" r:id="rId5"/>
+    <sheet name="preferences" sheetId="6" r:id="rId4"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId5"/>
+    <sheet name="Contrat" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Contrat!$A$1:$F$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Contrat!$A$1:$F$99</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">données!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Feuil3!$H:$I</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Feuil3!$H:$I</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Presta!$F$1:$L$239</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">données!$B$11</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="3">Feuil3!$K$1:$L$1</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="4">Feuil3!$K$1:$L$1</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">Presta!$P$135</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4119" uniqueCount="1408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4122" uniqueCount="1409">
   <si>
     <t>Formation</t>
   </si>
@@ -4272,6 +4273,9 @@
   </si>
   <si>
     <t>Absences</t>
+  </si>
+  <si>
+    <t>idpresta</t>
   </si>
 </sst>
 </file>
@@ -5406,7 +5410,7 @@
   <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C34"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5665,8 +5669,8 @@
         <v>1</v>
       </c>
       <c r="C22" t="str">
-        <f>"insert into gta_ActivitesParTypes (idType,idActivite) values("&amp;A22&amp;","&amp;B22&amp;");"</f>
-        <v>insert into gta_ActivitesParTypes (idType,idActivite) values(1,1);</v>
+        <f>"insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values("&amp;A22&amp;","&amp;B22&amp;");"</f>
+        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(1,1);</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>1051</v>
@@ -5680,8 +5684,8 @@
         <v>1</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" ref="C23:C34" si="2">"insert into gta_ActivitesParTypes (idType,idActivite) values("&amp;A23&amp;","&amp;B23&amp;");"</f>
-        <v>insert into gta_ActivitesParTypes (idType,idActivite) values(2,1);</v>
+        <f t="shared" ref="C23:C34" si="2">"insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values("&amp;A23&amp;","&amp;B23&amp;");"</f>
+        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(2,1);</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -5703,7 +5707,7 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" si="2"/>
-        <v>insert into gta_ActivitesParTypes (idType,idActivite) values(2,2);</v>
+        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(2,2);</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -5725,7 +5729,7 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" si="2"/>
-        <v>insert into gta_ActivitesParTypes (idType,idActivite) values(3,6);</v>
+        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(3,6);</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -5747,7 +5751,7 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" si="2"/>
-        <v>insert into gta_ActivitesParTypes (idType,idActivite) values(4,1);</v>
+        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(4,1);</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -5769,7 +5773,7 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" si="2"/>
-        <v>insert into gta_ActivitesParTypes (idType,idActivite) values(4,2);</v>
+        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(4,2);</v>
       </c>
       <c r="F27">
         <v>4</v>
@@ -5791,7 +5795,7 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" si="2"/>
-        <v>insert into gta_ActivitesParTypes (idType,idActivite) values(4,3);</v>
+        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(4,3);</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -5803,7 +5807,7 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" si="2"/>
-        <v>insert into gta_ActivitesParTypes (idType,idActivite) values(4,4);</v>
+        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(4,4);</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -5815,7 +5819,7 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" si="2"/>
-        <v>insert into gta_ActivitesParTypes (idType,idActivite) values(4,5);</v>
+        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(4,5);</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -5827,7 +5831,7 @@
       </c>
       <c r="C31" t="str">
         <f t="shared" si="2"/>
-        <v>insert into gta_ActivitesParTypes (idType,idActivite) values(5,4);</v>
+        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(5,4);</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>1151</v>
@@ -5842,7 +5846,7 @@
       </c>
       <c r="C32" t="str">
         <f t="shared" si="2"/>
-        <v>insert into gta_ActivitesParTypes (idType,idActivite) values(6,2);</v>
+        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(6,2);</v>
       </c>
       <c r="F32" s="86">
         <v>1</v>
@@ -5864,7 +5868,7 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" si="2"/>
-        <v>insert into gta_ActivitesParTypes (idType,idActivite) values(6,3);</v>
+        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(6,3);</v>
       </c>
       <c r="F33" s="86">
         <v>2</v>
@@ -5886,7 +5890,7 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" si="2"/>
-        <v>insert into gta_ActivitesParTypes (idType,idActivite) values(6,4);</v>
+        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(6,4);</v>
       </c>
       <c r="F34" s="86">
         <v>3</v>
@@ -7487,7 +7491,7 @@
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10898,8 +10902,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:U239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="K18" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22343,6 +22347,1196 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E224D1D7-F57F-44CB-9CCB-B6AFB84720E2}">
+  <dimension ref="A1:D98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,"&amp;C2&amp;",null,null,"&amp;B2&amp;",1);"</f>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,1,1);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="0">"insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,"&amp;C3&amp;",null,null,"&amp;B3&amp;",1);"</f>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,2,1);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,3,1);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,4,1);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,5,1);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,6,1);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,7,1);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,8,1);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,9,1);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,10,1);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,11,1);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,12,1);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,13,1);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,14,1);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,15,1);</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,16,1);</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,17,1);</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,18,1);</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,19,1);</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,20,1);</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,21,1);</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,22,1);</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,23,1);</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,24,1);</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,25,1);</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,26,1);</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,27,1);</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,28,1);</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,29,1);</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,30,1);</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,31,1);</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,32,1);</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,33,1);</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,34,1);</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,35,1);</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,36,1);</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,37,1);</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,38,1);</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,39,1);</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,40,1);</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,41,1);</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,42,1);</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,43,1);</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,44,1);</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,45,1);</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,46,1);</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,47,1);</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,48,1);</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,49,1);</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,50,1);</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,51,1);</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,52,1);</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,53,1);</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,54,1);</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,55,1);</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,56,1);</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,57,1);</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,58,1);</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,59,1);</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,60,1);</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,61,1);</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,62,1);</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,63,1);</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,64,1);</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,65,1);</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D98" si="1">"insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,"&amp;C67&amp;",null,null,"&amp;B67&amp;",1);"</f>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,66,1);</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,67,1);</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,68,1);</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,69,1);</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,70,1);</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,71,1);</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,72,1);</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,73,1);</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,74,1);</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,75,1);</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,76,1);</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,77,1);</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,78,1);</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,79,1);</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,80,1);</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,81,1);</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,82,1);</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,83,1);</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,84,1);</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,85,1);</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,86,1);</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,87,1);</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,88,1);</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,89,1);</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,90,1);</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,91,1);</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,92,1);</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,93,1);</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,94,1);</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,95,1);</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,96,1);</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>97</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,97,1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:Q398"/>
@@ -28670,7 +29864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE8D982-E2A1-4EC4-B2EE-EC7FE8FBDA39}">
   <dimension ref="A1:G98"/>
   <sheetViews>

--- a/DOCS/Jeux de données.xlsx
+++ b/DOCS/Jeux de données.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1701871\Documents\GTA\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967C3932-7827-4AB3-8ADE-5D3004D07ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFCB8FF-E2DD-4787-B9FE-77B61AC20667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="données" sheetId="1" r:id="rId1"/>
@@ -5409,8 +5409,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5681,11 +5681,11 @@
         <v>2</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" ref="C23:C34" si="2">"insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values("&amp;A23&amp;","&amp;B23&amp;");"</f>
-        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(2,1);</v>
+        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(2,2);</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -5703,11 +5703,11 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="2"/>
-        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(2,2);</v>
+        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(2,3);</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -5725,11 +5725,11 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="2"/>
-        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(3,6);</v>
+        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(3,7);</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -5747,11 +5747,11 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="2"/>
-        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(4,1);</v>
+        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(4,2);</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -5769,11 +5769,11 @@
         <v>4</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="2"/>
-        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(4,2);</v>
+        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(4,3);</v>
       </c>
       <c r="F27">
         <v>4</v>
@@ -5791,11 +5791,11 @@
         <v>4</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="2"/>
-        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(4,3);</v>
+        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(4,4);</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -5803,11 +5803,11 @@
         <v>4</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="2"/>
-        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(4,4);</v>
+        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(4,5);</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -5815,11 +5815,11 @@
         <v>4</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="2"/>
-        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(4,5);</v>
+        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(4,6);</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -5827,11 +5827,11 @@
         <v>5</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="2"/>
-        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(5,4);</v>
+        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(5,5);</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>1151</v>
@@ -5842,11 +5842,11 @@
         <v>6</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="2"/>
-        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(6,2);</v>
+        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(6,3);</v>
       </c>
       <c r="F32" s="86">
         <v>1</v>
@@ -5864,11 +5864,11 @@
         <v>6</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="2"/>
-        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(6,3);</v>
+        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(6,4);</v>
       </c>
       <c r="F33" s="86">
         <v>2</v>
@@ -5886,11 +5886,11 @@
         <v>6</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="2"/>
-        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(6,4);</v>
+        <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(6,5);</v>
       </c>
       <c r="F34" s="86">
         <v>3</v>
@@ -10902,8 +10902,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:U239"/>
   <sheetViews>
-    <sheetView topLeftCell="K18" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22350,7 +22350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E224D1D7-F57F-44CB-9CCB-B6AFB84720E2}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/DOCS/Jeux de données.xlsx
+++ b/DOCS/Jeux de données.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1701871\Documents\GTA\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC71809E-094D-4EE4-A233-6B1D0AD14C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="données" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
     <definedName name="_xlnm.Extract" localSheetId="4">Feuil3!$K$1:$L$1</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">Presta!$P$135</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3992,7 +3993,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm"/>
   </numFmts>
@@ -4774,9 +4775,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 18 2" xfId="2"/>
-    <cellStyle name="Normal 19 2" xfId="1"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 18 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 19 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -5116,26 +5117,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="79" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5147,7 +5148,7 @@
         <v>insert into gta_Activites values(1,"Absences");</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5159,7 +5160,7 @@
         <v>insert into gta_Activites values(2,"Production");</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5171,7 +5172,7 @@
         <v>insert into gta_Activites values(3,"Service Public");</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5183,7 +5184,7 @@
         <v>insert into gta_Activites values(4,"Fca");</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5195,7 +5196,7 @@
         <v>insert into gta_Activites values(5,"Fcta");</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5207,7 +5208,7 @@
         <v>insert into gta_Activites values(6,"Fcta Spe");</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5219,7 +5220,7 @@
         <v>insert into gta_Activites values(7,"Mnsp");</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
@@ -5233,7 +5234,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5254,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -5275,7 +5276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5296,7 +5297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -5317,7 +5318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -5338,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>6</v>
       </c>
@@ -5359,12 +5360,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>342</v>
       </c>
@@ -5372,7 +5373,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -5387,7 +5388,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -5409,7 +5410,7 @@
         <v>insert into Roles  values(0,"non connecte");</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -5431,7 +5432,7 @@
         <v>insert into Roles  values(1,"agent");</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -5453,7 +5454,7 @@
         <v>insert into Roles  values(2,"manager");</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4</v>
       </c>
@@ -5475,7 +5476,7 @@
         <v>insert into Roles  values(3,"assistante");</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -5497,7 +5498,7 @@
         <v>insert into Roles  values(4,"admin");</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -5509,7 +5510,7 @@
         <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(4,4);</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -5521,7 +5522,7 @@
         <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(4,5);</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4</v>
       </c>
@@ -5533,7 +5534,7 @@
         <v>insert into gta_ActivitesParTypes (idTypePrestation,idActivite) values(4,6);</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>5</v>
       </c>
@@ -5548,7 +5549,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>6</v>
       </c>
@@ -5570,7 +5571,7 @@
         <v>insert into Conversions  values(null,1,"0,15");</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -5592,7 +5593,7 @@
         <v>insert into Conversions  values(null,2,"0,3");</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>6</v>
       </c>
@@ -5614,7 +5615,7 @@
         <v>insert into Conversions  values(null,3,"0,4");</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F35" s="86">
         <v>4</v>
       </c>
@@ -5626,7 +5627,7 @@
         <v>insert into Conversions  values(null,4,"0,5");</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>453</v>
       </c>
@@ -5641,7 +5642,7 @@
         <v>insert into Conversions  values(null,5,"0,6");</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>454</v>
       </c>
@@ -5659,7 +5660,7 @@
         <v>insert into Conversions  values(null,6,"0,8");</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
         <v>456</v>
       </c>
@@ -5684,7 +5685,7 @@
         <v>insert into Conversions  values(null,7,"0,9");</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
         <v>458</v>
       </c>
@@ -5709,7 +5710,7 @@
         <v>insert into Conversions  values(null,8,"1");</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>460</v>
       </c>
@@ -5724,7 +5725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
         <v>462</v>
       </c>
@@ -5739,7 +5740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
         <v>464</v>
       </c>
@@ -5754,7 +5755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
         <v>466</v>
       </c>
@@ -5772,7 +5773,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
         <v>468</v>
       </c>
@@ -5793,7 +5794,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
         <v>470</v>
       </c>
@@ -5808,7 +5809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
         <v>472</v>
       </c>
@@ -5823,7 +5824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
         <v>474</v>
       </c>
@@ -5838,7 +5839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>476</v>
       </c>
@@ -5853,7 +5854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
         <v>478</v>
       </c>
@@ -5868,7 +5869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>480</v>
       </c>
@@ -5883,7 +5884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
         <v>482</v>
       </c>
@@ -5898,7 +5899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
         <v>484</v>
       </c>
@@ -5913,7 +5914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
         <v>486</v>
       </c>
@@ -5928,7 +5929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
         <v>488</v>
       </c>
@@ -5943,7 +5944,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
         <v>490</v>
       </c>
@@ -5958,7 +5959,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
         <v>492</v>
       </c>
@@ -5973,7 +5974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="15">
         <v>59000</v>
       </c>
@@ -5988,7 +5989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="15">
         <v>97015</v>
       </c>
@@ -6003,7 +6004,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
         <v>452</v>
       </c>
@@ -6011,7 +6012,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="15">
         <v>101</v>
       </c>
@@ -6026,7 +6027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="15">
         <v>102</v>
       </c>
@@ -6041,7 +6042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="15">
         <v>103</v>
       </c>
@@ -6056,7 +6057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="15">
         <v>104</v>
       </c>
@@ -6071,7 +6072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="15">
         <v>106</v>
       </c>
@@ -6086,7 +6087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="15">
         <v>107</v>
       </c>
@@ -6101,7 +6102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="15">
         <v>108</v>
       </c>
@@ -6116,7 +6117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="15">
         <v>109</v>
       </c>
@@ -6131,7 +6132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="15">
         <v>111</v>
       </c>
@@ -6146,7 +6147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="15">
         <v>112</v>
       </c>
@@ -6161,7 +6162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="15">
         <v>114</v>
       </c>
@@ -6176,7 +6177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="15">
         <v>116</v>
       </c>
@@ -6191,7 +6192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="15">
         <v>117</v>
       </c>
@@ -6206,7 +6207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="15">
         <v>118</v>
       </c>
@@ -6221,7 +6222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="15">
         <v>119</v>
       </c>
@@ -6236,7 +6237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="15">
         <v>122</v>
       </c>
@@ -6251,7 +6252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="15">
         <v>124</v>
       </c>
@@ -6266,7 +6267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="15">
         <v>126</v>
       </c>
@@ -6281,7 +6282,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="15">
         <v>128</v>
       </c>
@@ -6296,7 +6297,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="15">
         <v>132</v>
       </c>
@@ -6311,7 +6312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="15">
         <v>133</v>
       </c>
@@ -6326,7 +6327,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="15">
         <v>134</v>
       </c>
@@ -6341,7 +6342,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="15">
         <v>136</v>
       </c>
@@ -6356,7 +6357,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="15">
         <v>139</v>
       </c>
@@ -6371,7 +6372,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="15">
         <v>141</v>
       </c>
@@ -6386,7 +6387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="15">
         <v>144</v>
       </c>
@@ -6401,7 +6402,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="15">
         <v>145</v>
       </c>
@@ -6416,7 +6417,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="15">
         <v>150</v>
       </c>
@@ -6431,7 +6432,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="15">
         <v>152</v>
       </c>
@@ -6446,7 +6447,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="15">
         <v>153</v>
       </c>
@@ -6461,7 +6462,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="15">
         <v>159</v>
       </c>
@@ -6476,7 +6477,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="15">
         <v>160</v>
       </c>
@@ -6491,7 +6492,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="15">
         <v>161</v>
       </c>
@@ -6506,7 +6507,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="15">
         <v>162</v>
       </c>
@@ -6521,7 +6522,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="15">
         <v>163</v>
       </c>
@@ -6536,7 +6537,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="15">
         <v>164</v>
       </c>
@@ -6551,7 +6552,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="15">
         <v>165</v>
       </c>
@@ -6566,7 +6567,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="15">
         <v>166</v>
       </c>
@@ -6581,7 +6582,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="15">
         <v>167</v>
       </c>
@@ -6596,7 +6597,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="15">
         <v>169</v>
       </c>
@@ -6611,7 +6612,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="15">
         <v>170</v>
       </c>
@@ -6626,7 +6627,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="15">
         <v>171</v>
       </c>
@@ -6641,7 +6642,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="15">
         <v>173</v>
       </c>
@@ -6656,7 +6657,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="15">
         <v>174</v>
       </c>
@@ -6671,7 +6672,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="15">
         <v>175</v>
       </c>
@@ -6686,7 +6687,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="15">
         <v>176</v>
       </c>
@@ -6701,7 +6702,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="15">
         <v>177</v>
       </c>
@@ -6716,7 +6717,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="15">
         <v>178</v>
       </c>
@@ -6731,7 +6732,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="15">
         <v>179</v>
       </c>
@@ -6746,7 +6747,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="15">
         <v>180</v>
       </c>
@@ -6761,7 +6762,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="15">
         <v>190</v>
       </c>
@@ -6776,7 +6777,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="15">
         <v>191</v>
       </c>
@@ -6791,7 +6792,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="15">
         <v>192</v>
       </c>
@@ -6806,7 +6807,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="15">
         <v>901</v>
       </c>
@@ -6821,7 +6822,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="15">
         <v>902</v>
       </c>
@@ -6836,7 +6837,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="15">
         <v>903</v>
       </c>
@@ -6851,7 +6852,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="15">
         <v>904</v>
       </c>
@@ -6866,7 +6867,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="15">
         <v>905</v>
       </c>
@@ -6881,7 +6882,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="15">
         <v>906</v>
       </c>
@@ -6896,7 +6897,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="15">
         <v>907</v>
       </c>
@@ -6911,7 +6912,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="15">
         <v>908</v>
       </c>
@@ -6926,7 +6927,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="15">
         <v>909</v>
       </c>
@@ -6941,7 +6942,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="15">
         <v>910</v>
       </c>
@@ -6956,7 +6957,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="15">
         <v>911</v>
       </c>
@@ -6971,7 +6972,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="15">
         <v>912</v>
       </c>
@@ -6986,7 +6987,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="15">
         <v>914</v>
       </c>
@@ -7001,7 +7002,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="15">
         <v>188</v>
       </c>
@@ -7016,7 +7017,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="89" t="s">
         <v>1168</v>
       </c>
@@ -7031,7 +7032,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="85" t="s">
         <v>1</v>
       </c>
@@ -7039,7 +7040,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>4</v>
       </c>
@@ -7054,7 +7055,7 @@
         <v>insert into Motifs (codeMotif,libelleMotif,idTypePrestation) Values (21,"Tps réunion IRP",4);</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>4</v>
       </c>
@@ -7069,7 +7070,7 @@
         <v>insert into Motifs (codeMotif,libelleMotif,idTypePrestation) Values (22,"Heures/décharges IRP",4);</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>4</v>
       </c>
@@ -7084,7 +7085,7 @@
         <v>insert into Motifs (codeMotif,libelleMotif,idTypePrestation) Values (23,"Délégué syndical",4);</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>4</v>
       </c>
@@ -7099,7 +7100,7 @@
         <v>insert into Motifs (codeMotif,libelleMotif,idTypePrestation) Values (24,"Heures/décharges syndicales",4);</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>4</v>
       </c>
@@ -7114,7 +7115,7 @@
         <v>insert into Motifs (codeMotif,libelleMotif,idTypePrestation) Values (25,"Temps de réunion syndical",4);</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>4</v>
       </c>
@@ -7129,7 +7130,7 @@
         <v>insert into Motifs (codeMotif,libelleMotif,idTypePrestation) Values (26,"Autres motifs syndicaux",4);</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>4</v>
       </c>
@@ -7144,7 +7145,7 @@
         <v>insert into Motifs (codeMotif,libelleMotif,idTypePrestation) Values (27,"Mandats externes",4);</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>3</v>
       </c>
@@ -7159,7 +7160,7 @@
         <v>insert into Motifs (codeMotif,libelleMotif,idTypePrestation) Values (31,"perfectionnement : formation initiale",3);</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>3</v>
       </c>
@@ -7174,7 +7175,7 @@
         <v>insert into Motifs (codeMotif,libelleMotif,idTypePrestation) Values (32,"perfectionnement : formation continue",3);</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>3</v>
       </c>
@@ -7197,21 +7198,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1169</v>
       </c>
@@ -7243,7 +7244,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1127</v>
       </c>
@@ -7283,7 +7284,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="christelle.joly@afpa.fr" where idUtilisateur = 2;</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1098</v>
       </c>
@@ -7323,7 +7324,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="christophe.houitte@afpa.fr" where idUtilisateur = 3;</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1066</v>
       </c>
@@ -7363,7 +7364,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="frederic.delescluse@afpa.fr" where idUtilisateur = 4;</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1077</v>
       </c>
@@ -7403,7 +7404,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="herve.ferare@afpa.fr" where idUtilisateur = 5;</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1057</v>
       </c>
@@ -7443,7 +7444,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="sylvie.danel@afpa.fr" where idUtilisateur = 6;</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1072</v>
       </c>
@@ -7483,7 +7484,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="thomas.deremetz@afpa.fr" where idUtilisateur = 7;</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1073</v>
       </c>
@@ -7523,7 +7524,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="adelaide.agez@afpa.fr" where idUtilisateur = 8;</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1088</v>
       </c>
@@ -7563,7 +7564,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="albert.laforce@afpa.fr" where idUtilisateur = 9;</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1180</v>
       </c>
@@ -7603,7 +7604,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="albin.houziaux@afpa.fr" where idUtilisateur = 10;</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1112</v>
       </c>
@@ -7643,7 +7644,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="alexandre.faut@afpa.fr" where idUtilisateur = 11;</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1141</v>
       </c>
@@ -7683,7 +7684,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="amandine.montuy@afpa.fr" where idUtilisateur = 12;</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1107</v>
       </c>
@@ -7723,7 +7724,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="amelie.derebreu@afpa.fr" where idUtilisateur = 13;</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1070</v>
       </c>
@@ -7763,7 +7764,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="andre.lagouardille@afpa.fr" where idUtilisateur = 14;</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1060</v>
       </c>
@@ -7803,7 +7804,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="anne.distanti@afpa.fr" where idUtilisateur = 15;</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1125</v>
       </c>
@@ -7843,7 +7844,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="anne.vilcot@afpa.fr" where idUtilisateur = 16;</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1123</v>
       </c>
@@ -7883,7 +7884,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="arnaud.sinnaeve@afpa.fr" where idUtilisateur = 17;</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1075</v>
       </c>
@@ -7923,7 +7924,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="audrey.colin@afpa.fr" where idUtilisateur = 18;</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1142</v>
       </c>
@@ -7963,7 +7964,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="audrey.podgorski@afpa.fr" where idUtilisateur = 19;</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1091</v>
       </c>
@@ -8003,7 +8004,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="barbara.poure@afpa.fr" where idUtilisateur = 20;</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1148</v>
       </c>
@@ -8043,7 +8044,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="bettina.vitse@afpa.fr" where idUtilisateur = 21;</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1080</v>
       </c>
@@ -8083,7 +8084,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="blandine.evrard@afpa.fr" where idUtilisateur = 22;</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1139</v>
       </c>
@@ -8123,7 +8124,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="carole.logez@afpa.fr" where idUtilisateur = 23;</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1131</v>
       </c>
@@ -8163,7 +8164,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="catherine.delescluse@afpa.fr" where idUtilisateur = 24;</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1134</v>
       </c>
@@ -8203,7 +8204,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="catherine.fauquembergue@afpa.fr" where idUtilisateur = 25;</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1147</v>
       </c>
@@ -8243,7 +8244,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="catherine.vincent@afpa.fr" where idUtilisateur = 26;</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1117</v>
       </c>
@@ -8283,7 +8284,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="cedric.kowalewski@afpa.fr" where idUtilisateur = 27;</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1146</v>
       </c>
@@ -8323,7 +8324,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="celine.verove@afpa.fr" where idUtilisateur = 28;</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1121</v>
       </c>
@@ -8363,7 +8364,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="charlotte.petit@afpa.fr" where idUtilisateur = 29;</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1113</v>
       </c>
@@ -8403,7 +8404,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="christophe.ficquet@afpa.fr" where idUtilisateur = 30;</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1120</v>
       </c>
@@ -8443,7 +8444,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="christophe.mille@afpa.fr" where idUtilisateur = 31;</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1095</v>
       </c>
@@ -8483,7 +8484,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="christophe.vanbaelinghem@afpa.fr" where idUtilisateur = 32;</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1071</v>
       </c>
@@ -8523,7 +8524,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="clement.poudre@afpa.fr" where idUtilisateur = 33;</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1094</v>
       </c>
@@ -8563,7 +8564,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="david.rouvillois@afpa.fr" where idUtilisateur = 34;</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1076</v>
       </c>
@@ -8603,7 +8604,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="david.taffin@afpa.fr" where idUtilisateur = 35;</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1188</v>
       </c>
@@ -8643,7 +8644,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="delphine.verraes@afpa.fr" where idUtilisateur = 36;</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1062</v>
       </c>
@@ -8683,7 +8684,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="dorothee.lachevre@afpa.fr" where idUtilisateur = 37;</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1149</v>
       </c>
@@ -8723,7 +8724,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="elisabeth.ziemniak@afpa.fr" where idUtilisateur = 38;</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1104</v>
       </c>
@@ -8763,7 +8764,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="elodie.degroote@afpa.fr" where idUtilisateur = 39;</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1133</v>
       </c>
@@ -8803,7 +8804,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="estherina.dufosse@afpa.fr" where idUtilisateur = 40;</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>1068</v>
       </c>
@@ -8843,7 +8844,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="fanny.fardel@afpa.fr" where idUtilisateur = 41;</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>1084</v>
       </c>
@@ -8883,7 +8884,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="francis.havard@afpa.fr" where idUtilisateur = 42;</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>1081</v>
       </c>
@@ -8923,7 +8924,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="franck.ferand@afpa.fr" where idUtilisateur = 43;</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>1103</v>
       </c>
@@ -8963,7 +8964,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="francois.debue@afpa.fr" where idUtilisateur = 44;</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>1114</v>
       </c>
@@ -9003,7 +9004,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="frederic.fontowicz@afpa.fr" where idUtilisateur = 45;</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>1124</v>
       </c>
@@ -9043,7 +9044,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="frederic.thomas@afpa.fr" where idUtilisateur = 46;</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1115</v>
       </c>
@@ -9083,7 +9084,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="helene.fournet@afpa.fr" where idUtilisateur = 47;</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1101</v>
       </c>
@@ -9123,7 +9124,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="herve.butterdroghe@afpa.fr" where idUtilisateur = 48;</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1086</v>
       </c>
@@ -9163,7 +9164,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="herve.jousse@afpa.fr" where idUtilisateur = 49;</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>1085</v>
       </c>
@@ -9203,7 +9204,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="jacqueline.jacquet@afpa.fr" where idUtilisateur = 50;</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1105</v>
       </c>
@@ -9243,7 +9244,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="jean-bernard.dehem@afpa.fr" where idUtilisateur = 51;</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1100</v>
       </c>
@@ -9283,7 +9284,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="jean-paul.batsik@afpa.fr" where idUtilisateur = 52;</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1144</v>
       </c>
@@ -9323,7 +9324,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="jean-rene.sonneck@afpa.fr" where idUtilisateur = 53;</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>1116</v>
       </c>
@@ -9363,7 +9364,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="karim.gharbi@afpa.fr" where idUtilisateur = 54;</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>1132</v>
       </c>
@@ -9403,7 +9404,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="karine.dissaux@afpa.fr" where idUtilisateur = 55;</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>1128</v>
       </c>
@@ -9443,7 +9444,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="laurence.bocquet@afpa.fr" where idUtilisateur = 56;</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>1130</v>
       </c>
@@ -9483,7 +9484,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="laurence.caron@afpa.fr" where idUtilisateur = 57;</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>1058</v>
       </c>
@@ -9523,7 +9524,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="loic.becu@afpa.fr" where idUtilisateur = 58;</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>1067</v>
       </c>
@@ -9563,7 +9564,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="ludovic.blondeel@afpa.fr" where idUtilisateur = 59;</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>1078</v>
       </c>
@@ -9603,7 +9604,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="ludovic.delattre@afpa.fr" where idUtilisateur = 60;</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>1079</v>
       </c>
@@ -9643,7 +9644,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="ludovic.duquenoy@afpa.fr" where idUtilisateur = 61;</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1135</v>
       </c>
@@ -9683,7 +9684,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="marie.galant@afpa.fr" where idUtilisateur = 62;</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>1122</v>
       </c>
@@ -9723,7 +9724,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="marie.plancke@afpa.fr" where idUtilisateur = 63;</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1138</v>
       </c>
@@ -9763,7 +9764,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="marie-catherine.landragin@afpa.fr" where idUtilisateur = 64;</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>1092</v>
       </c>
@@ -9803,7 +9804,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="marie-helene.reymbaut@afpa.fr" where idUtilisateur = 65;</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1199</v>
       </c>
@@ -9843,7 +9844,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="martine.poix@afpa.fr" where idUtilisateur = 66;</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>1063</v>
       </c>
@@ -9883,7 +9884,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="maryline.marechal@afpa.fr" where idUtilisateur = 67;</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1119</v>
       </c>
@@ -9923,7 +9924,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="maryline.melsen@afpa.fr" where idUtilisateur = 68;</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>1106</v>
       </c>
@@ -9963,7 +9964,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="nathalie.delpierre@afpa.fr" where idUtilisateur = 69;</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>1074</v>
       </c>
@@ -10003,7 +10004,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="nicolas.bonvoisin@afpa.fr" where idUtilisateur = 70;</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1111</v>
       </c>
@@ -10043,7 +10044,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="olivier.duchesne@afpa.fr" where idUtilisateur = 71;</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>1082</v>
       </c>
@@ -10083,7 +10084,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="olivier.foure@afpa.fr" where idUtilisateur = 72;</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1090</v>
       </c>
@@ -10123,7 +10124,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="pascal.offre@afpa.fr" where idUtilisateur = 73;</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>1065</v>
       </c>
@@ -10163,7 +10164,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="pascale.wallot@afpa.fr" where idUtilisateur = 74;</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>1097</v>
       </c>
@@ -10203,7 +10204,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="philippe.vezilier@afpa.fr" where idUtilisateur = 75;</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>1093</v>
       </c>
@@ -10243,7 +10244,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="pierre.rivet@afpa.fr" where idUtilisateur = 76;</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>1108</v>
       </c>
@@ -10283,7 +10284,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="romain.devred@afpa.fr" where idUtilisateur = 77;</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>1064</v>
       </c>
@@ -10323,7 +10324,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="rose-marie.schmidlin@afpa.fr" where idUtilisateur = 78;</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>1110</v>
       </c>
@@ -10363,7 +10364,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="sabrina.doigneaux@afpa.fr" where idUtilisateur = 79;</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>1096</v>
       </c>
@@ -10403,7 +10404,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="salsabil.zagdoudi@afpa.fr" where idUtilisateur = 80;</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>1061</v>
       </c>
@@ -10443,7 +10444,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="sandrine.gobfert@afpa.fr" where idUtilisateur = 81;</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>1083</v>
       </c>
@@ -10483,7 +10484,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="sophie.guillot@afpa.fr" where idUtilisateur = 82;</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>1099</v>
       </c>
@@ -10523,7 +10524,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="stephane.ballet@afpa.fr" where idUtilisateur = 83;</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>1059</v>
       </c>
@@ -10563,7 +10564,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="stephanie.crispils@afpa.fr" where idUtilisateur = 84;</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>1102</v>
       </c>
@@ -10603,7 +10604,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="stephanie.debuchy@afpa.fr" where idUtilisateur = 85;</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>1069</v>
       </c>
@@ -10643,7 +10644,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="sylvie.hannequin@afpa.fr" where idUtilisateur = 86;</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>1137</v>
       </c>
@@ -10683,7 +10684,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="sylvie.jacquart@afpa.fr" where idUtilisateur = 87;</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>1118</v>
       </c>
@@ -10723,7 +10724,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="sylvie.leclercq@afpa.fr" where idUtilisateur = 88;</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>1129</v>
       </c>
@@ -10763,7 +10764,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="valerie.bremont@afpa.fr" where idUtilisateur = 89;</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>1136</v>
       </c>
@@ -10803,7 +10804,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="valerie.genu@afpa.fr" where idUtilisateur = 90;</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>1143</v>
       </c>
@@ -10843,7 +10844,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="valerie.richard@afpa.fr" where idUtilisateur = 91;</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>1140</v>
       </c>
@@ -10883,7 +10884,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="vanessa.monsterlet@afpa.fr" where idUtilisateur = 92;</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>1145</v>
       </c>
@@ -10923,7 +10924,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="veronique.vandenbergue@afpa.fr" where idUtilisateur = 93;</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>1109</v>
       </c>
@@ -10963,7 +10964,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="virginie.dewet@afpa.fr" where idUtilisateur = 94;</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>1089</v>
       </c>
@@ -11003,7 +11004,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="xavier.lherbier@afpa.fr" where idUtilisateur = 95;</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>1126</v>
       </c>
@@ -11043,7 +11044,7 @@
         <v>update gta_Utilisateurs set mailUtilisateur="xavier.vitse@afpa.fr" where idUtilisateur = 96;</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>1087</v>
       </c>
@@ -11089,7 +11090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:U239"/>
   <sheetViews>
@@ -11097,17 +11098,17 @@
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="64" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="66"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="66"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="16" max="16" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -11154,7 +11155,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -11209,7 +11210,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(134,2);</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -11264,7 +11265,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(135,3);</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -11319,7 +11320,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(136,4);</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -11374,7 +11375,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(137,5);</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -11429,7 +11430,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(138,6);</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -11484,7 +11485,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(139,7);</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -11539,7 +11540,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(139,8);</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
@@ -11594,7 +11595,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(140,9);</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -11649,7 +11650,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(140,10);</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -11704,7 +11705,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(141,11);</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
@@ -11759,7 +11760,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(178,12);</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
@@ -11814,7 +11815,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(178,13);</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
@@ -11869,7 +11870,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(178,14);</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
@@ -11924,7 +11925,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(142,15);</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>32</v>
       </c>
@@ -11979,7 +11980,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(143,16);</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
@@ -12034,7 +12035,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(144,17);</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -12089,7 +12090,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(145,18);</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>38</v>
       </c>
@@ -12144,7 +12145,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(146,19);</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>40</v>
       </c>
@@ -12199,7 +12200,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(147,20);</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>42</v>
       </c>
@@ -12254,7 +12255,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(148,21);</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>44</v>
       </c>
@@ -12309,7 +12310,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(149,22);</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>46</v>
       </c>
@@ -12364,7 +12365,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(149,23);</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>48</v>
       </c>
@@ -12419,7 +12420,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(150,24);</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>50</v>
       </c>
@@ -12474,7 +12475,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(151,25);</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>52</v>
       </c>
@@ -12529,7 +12530,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(152,26);</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>54</v>
       </c>
@@ -12584,7 +12585,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(152,27);</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>56</v>
       </c>
@@ -12639,7 +12640,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(178,28);</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>58</v>
       </c>
@@ -12694,7 +12695,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(153,29);</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>60</v>
       </c>
@@ -12749,7 +12750,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(153,30);</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>62</v>
       </c>
@@ -12804,7 +12805,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(178,31);</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>64</v>
       </c>
@@ -12859,7 +12860,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(154,32);</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>66</v>
       </c>
@@ -12914,7 +12915,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(155,33);</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>68</v>
       </c>
@@ -12969,7 +12970,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(156,34);</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>70</v>
       </c>
@@ -13024,7 +13025,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(157,35);</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>72</v>
       </c>
@@ -13079,7 +13080,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(158,36);</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>74</v>
       </c>
@@ -13134,7 +13135,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(159,37);</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>76</v>
       </c>
@@ -13189,7 +13190,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(160,38);</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>78</v>
       </c>
@@ -13244,7 +13245,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(160,39);</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>80</v>
       </c>
@@ -13299,7 +13300,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(161,40);</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>82</v>
       </c>
@@ -13354,7 +13355,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(162,41);</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>84</v>
       </c>
@@ -13409,7 +13410,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(80,42);</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>86</v>
       </c>
@@ -13464,7 +13465,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(81,43);</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>88</v>
       </c>
@@ -13519,7 +13520,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(82,44);</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>90</v>
       </c>
@@ -13574,7 +13575,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(83,45);</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>92</v>
       </c>
@@ -13629,7 +13630,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(84,46);</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>94</v>
       </c>
@@ -13684,7 +13685,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(85,47);</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>96</v>
       </c>
@@ -13739,7 +13740,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(86,48);</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>98</v>
       </c>
@@ -13794,7 +13795,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(87,49);</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>100</v>
       </c>
@@ -13849,7 +13850,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(88,50);</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>102</v>
       </c>
@@ -13904,7 +13905,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(89,51);</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>104</v>
       </c>
@@ -13959,7 +13960,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(90,52);</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>106</v>
       </c>
@@ -14014,7 +14015,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(91,53);</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>108</v>
       </c>
@@ -14069,7 +14070,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(92,54);</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>110</v>
       </c>
@@ -14124,7 +14125,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(163,55);</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>112</v>
       </c>
@@ -14179,7 +14180,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(163,56);</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>114</v>
       </c>
@@ -14234,7 +14235,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(164,57);</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>116</v>
       </c>
@@ -14289,7 +14290,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(164,58);</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>118</v>
       </c>
@@ -14344,7 +14345,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(165,59);</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>120</v>
       </c>
@@ -14399,7 +14400,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(9,60);</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>122</v>
       </c>
@@ -14454,7 +14455,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(10,61);</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>124</v>
       </c>
@@ -14509,7 +14510,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(11,62);</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>126</v>
       </c>
@@ -14564,7 +14565,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(12,63);</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>128</v>
       </c>
@@ -14619,7 +14620,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(14,64);</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>130</v>
       </c>
@@ -14674,7 +14675,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(16,65);</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>132</v>
       </c>
@@ -14729,7 +14730,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(18,66);</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>134</v>
       </c>
@@ -14784,7 +14785,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(20,67);</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>136</v>
       </c>
@@ -14839,7 +14840,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(21,68);</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>138</v>
       </c>
@@ -14894,7 +14895,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(53,69);</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>140</v>
       </c>
@@ -14949,7 +14950,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(55,70);</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>142</v>
       </c>
@@ -15004,7 +15005,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(178,71);</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>144</v>
       </c>
@@ -15059,7 +15060,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(178,72);</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>146</v>
       </c>
@@ -15114,7 +15115,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(64,73);</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>148</v>
       </c>
@@ -15169,7 +15170,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(166,74);</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>150</v>
       </c>
@@ -15224,7 +15225,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(167,75);</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
         <v>152</v>
       </c>
@@ -15279,7 +15280,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(167,76);</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>154</v>
       </c>
@@ -15334,7 +15335,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(168,77);</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>156</v>
       </c>
@@ -15389,7 +15390,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(168,78);</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>158</v>
       </c>
@@ -15444,7 +15445,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(168,79);</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>160</v>
       </c>
@@ -15499,7 +15500,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(169,80);</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>162</v>
       </c>
@@ -15554,7 +15555,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(169,81);</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
         <v>164</v>
       </c>
@@ -15609,7 +15610,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(170,82);</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>166</v>
       </c>
@@ -15664,7 +15665,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(62,83);</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>168</v>
       </c>
@@ -15719,7 +15720,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(49,84);</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>170</v>
       </c>
@@ -15774,7 +15775,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(50,85);</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
         <v>172</v>
       </c>
@@ -15829,7 +15830,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(171,86);</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>174</v>
       </c>
@@ -15884,7 +15885,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(171,87);</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
         <v>176</v>
       </c>
@@ -15939,7 +15940,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(172,88);</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
         <v>178</v>
       </c>
@@ -15994,7 +15995,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(60,89);</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>180</v>
       </c>
@@ -16049,7 +16050,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(29,90);</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>182</v>
       </c>
@@ -16104,7 +16105,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(30,91);</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
         <v>184</v>
       </c>
@@ -16159,7 +16160,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(173,92);</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
         <v>186</v>
       </c>
@@ -16214,7 +16215,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(32,93);</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>188</v>
       </c>
@@ -16269,7 +16270,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(174,94);</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
         <v>190</v>
       </c>
@@ -16324,7 +16325,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(175,95);</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
         <v>192</v>
       </c>
@@ -16379,7 +16380,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(27,96);</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
         <v>194</v>
       </c>
@@ -16434,7 +16435,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(25,97);</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
         <v>196</v>
       </c>
@@ -16489,7 +16490,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(26,98);</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
         <v>198</v>
       </c>
@@ -16544,7 +16545,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(24,99);</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>200</v>
       </c>
@@ -16599,7 +16600,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(61,100);</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
         <v>202</v>
       </c>
@@ -16654,7 +16655,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(60,101);</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>204</v>
       </c>
@@ -16709,7 +16710,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(60,102);</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>206</v>
       </c>
@@ -16764,7 +16765,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(80,103);</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>208</v>
       </c>
@@ -16819,7 +16820,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(81,104);</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>210</v>
       </c>
@@ -16874,7 +16875,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(82,105);</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>212</v>
       </c>
@@ -16929,7 +16930,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(83,106);</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>214</v>
       </c>
@@ -16984,7 +16985,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(84,107);</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>216</v>
       </c>
@@ -17039,7 +17040,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(85,108);</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
         <v>218</v>
       </c>
@@ -17094,7 +17095,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(86,109);</v>
       </c>
     </row>
-    <row r="110" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>220</v>
       </c>
@@ -17149,7 +17150,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(87,110);</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>222</v>
       </c>
@@ -17204,7 +17205,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(88,111);</v>
       </c>
     </row>
-    <row r="112" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>224</v>
       </c>
@@ -17259,7 +17260,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(89,112);</v>
       </c>
     </row>
-    <row r="113" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>226</v>
       </c>
@@ -17314,7 +17315,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(90,113);</v>
       </c>
     </row>
-    <row r="114" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
         <v>228</v>
       </c>
@@ -17369,7 +17370,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(91,114);</v>
       </c>
     </row>
-    <row r="115" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>230</v>
       </c>
@@ -17424,7 +17425,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(92,115);</v>
       </c>
     </row>
-    <row r="116" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>232</v>
       </c>
@@ -17479,7 +17480,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(80,116);</v>
       </c>
     </row>
-    <row r="117" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>234</v>
       </c>
@@ -17534,7 +17535,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(81,117);</v>
       </c>
     </row>
-    <row r="118" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>236</v>
       </c>
@@ -17589,7 +17590,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(82,118);</v>
       </c>
     </row>
-    <row r="119" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
         <v>238</v>
       </c>
@@ -17644,7 +17645,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(83,119);</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>240</v>
       </c>
@@ -17699,7 +17700,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(84,120);</v>
       </c>
     </row>
-    <row r="121" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>242</v>
       </c>
@@ -17754,7 +17755,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(85,121);</v>
       </c>
     </row>
-    <row r="122" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>244</v>
       </c>
@@ -17809,7 +17810,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(86,122);</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>246</v>
       </c>
@@ -17864,7 +17865,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(87,123);</v>
       </c>
     </row>
-    <row r="124" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>248</v>
       </c>
@@ -17919,7 +17920,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(88,124);</v>
       </c>
     </row>
-    <row r="125" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
         <v>250</v>
       </c>
@@ -17974,7 +17975,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(89,125);</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
         <v>252</v>
       </c>
@@ -18029,7 +18030,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(90,126);</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
         <v>254</v>
       </c>
@@ -18084,7 +18085,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(91,127);</v>
       </c>
     </row>
-    <row r="128" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>256</v>
       </c>
@@ -18139,7 +18140,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(92,128);</v>
       </c>
     </row>
-    <row r="129" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
         <v>258</v>
       </c>
@@ -18194,7 +18195,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(80,129);</v>
       </c>
     </row>
-    <row r="130" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
         <v>260</v>
       </c>
@@ -18249,7 +18250,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(81,130);</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
         <v>262</v>
       </c>
@@ -18304,7 +18305,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(82,131);</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
         <v>264</v>
       </c>
@@ -18359,7 +18360,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(83,132);</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
         <v>266</v>
       </c>
@@ -18414,7 +18415,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(84,133);</v>
       </c>
     </row>
-    <row r="134" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>268</v>
       </c>
@@ -18469,7 +18470,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(85,134);</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>270</v>
       </c>
@@ -18524,7 +18525,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(86,135);</v>
       </c>
     </row>
-    <row r="136" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
         <v>272</v>
       </c>
@@ -18579,7 +18580,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(87,136);</v>
       </c>
     </row>
-    <row r="137" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
         <v>274</v>
       </c>
@@ -18634,7 +18635,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(88,137);</v>
       </c>
     </row>
-    <row r="138" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
         <v>276</v>
       </c>
@@ -18689,7 +18690,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(89,138);</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
         <v>278</v>
       </c>
@@ -18744,7 +18745,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(90,139);</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
         <v>280</v>
       </c>
@@ -18799,7 +18800,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(91,140);</v>
       </c>
     </row>
-    <row r="141" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
         <v>282</v>
       </c>
@@ -18854,7 +18855,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(92,141);</v>
       </c>
     </row>
-    <row r="142" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
         <v>284</v>
       </c>
@@ -18909,7 +18910,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(80,142);</v>
       </c>
     </row>
-    <row r="143" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
         <v>286</v>
       </c>
@@ -18964,7 +18965,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(81,143);</v>
       </c>
     </row>
-    <row r="144" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
         <v>288</v>
       </c>
@@ -19019,7 +19020,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(82,144);</v>
       </c>
     </row>
-    <row r="145" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
         <v>290</v>
       </c>
@@ -19074,7 +19075,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(83,145);</v>
       </c>
     </row>
-    <row r="146" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
         <v>292</v>
       </c>
@@ -19129,7 +19130,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(84,146);</v>
       </c>
     </row>
-    <row r="147" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
         <v>294</v>
       </c>
@@ -19184,7 +19185,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(85,147);</v>
       </c>
     </row>
-    <row r="148" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
         <v>296</v>
       </c>
@@ -19239,7 +19240,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(86,148);</v>
       </c>
     </row>
-    <row r="149" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
         <v>298</v>
       </c>
@@ -19294,7 +19295,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(87,149);</v>
       </c>
     </row>
-    <row r="150" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
         <v>300</v>
       </c>
@@ -19349,7 +19350,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(88,150);</v>
       </c>
     </row>
-    <row r="151" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
         <v>302</v>
       </c>
@@ -19404,7 +19405,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(89,151);</v>
       </c>
     </row>
-    <row r="152" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
         <v>304</v>
       </c>
@@ -19459,7 +19460,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(90,152);</v>
       </c>
     </row>
-    <row r="153" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>306</v>
       </c>
@@ -19514,7 +19515,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(91,153);</v>
       </c>
     </row>
-    <row r="154" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>308</v>
       </c>
@@ -19569,7 +19570,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(92,154);</v>
       </c>
     </row>
-    <row r="155" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
         <v>310</v>
       </c>
@@ -19624,7 +19625,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(80,155);</v>
       </c>
     </row>
-    <row r="156" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
         <v>312</v>
       </c>
@@ -19679,7 +19680,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(81,156);</v>
       </c>
     </row>
-    <row r="157" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
         <v>314</v>
       </c>
@@ -19734,7 +19735,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(82,157);</v>
       </c>
     </row>
-    <row r="158" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
         <v>10</v>
       </c>
@@ -19789,7 +19790,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(83,158);</v>
       </c>
     </row>
-    <row r="159" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
         <v>316</v>
       </c>
@@ -19844,7 +19845,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(84,159);</v>
       </c>
     </row>
-    <row r="160" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
         <v>318</v>
       </c>
@@ -19899,7 +19900,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(85,160);</v>
       </c>
     </row>
-    <row r="161" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="12" t="s">
         <v>320</v>
       </c>
@@ -19954,7 +19955,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(86,161);</v>
       </c>
     </row>
-    <row r="162" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="A162" s="12" t="s">
         <v>322</v>
       </c>
@@ -20009,7 +20010,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(87,162);</v>
       </c>
     </row>
-    <row r="163" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="12" t="s">
         <v>323</v>
       </c>
@@ -20064,7 +20065,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(88,163);</v>
       </c>
     </row>
-    <row r="164" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="12" t="s">
         <v>325</v>
       </c>
@@ -20119,7 +20120,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(89,164);</v>
       </c>
     </row>
-    <row r="165" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="12" t="s">
         <v>327</v>
       </c>
@@ -20174,7 +20175,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(90,165);</v>
       </c>
     </row>
-    <row r="166" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F166">
         <v>166</v>
       </c>
@@ -20216,7 +20217,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(91,166);</v>
       </c>
     </row>
-    <row r="167" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F167">
         <v>167</v>
       </c>
@@ -20258,7 +20259,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(92,167);</v>
       </c>
     </row>
-    <row r="168" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F168">
         <v>168</v>
       </c>
@@ -20300,7 +20301,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(80,168);</v>
       </c>
     </row>
-    <row r="169" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F169">
         <v>169</v>
       </c>
@@ -20342,7 +20343,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(81,169);</v>
       </c>
     </row>
-    <row r="170" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F170">
         <v>170</v>
       </c>
@@ -20384,7 +20385,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(82,170);</v>
       </c>
     </row>
-    <row r="171" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" ht="18" x14ac:dyDescent="0.3">
       <c r="F171">
         <v>171</v>
       </c>
@@ -20426,7 +20427,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(83,171);</v>
       </c>
     </row>
-    <row r="172" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F172">
         <v>172</v>
       </c>
@@ -20468,7 +20469,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(84,172);</v>
       </c>
     </row>
-    <row r="173" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F173">
         <v>173</v>
       </c>
@@ -20510,7 +20511,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(85,173);</v>
       </c>
     </row>
-    <row r="174" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F174">
         <v>174</v>
       </c>
@@ -20552,7 +20553,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(86,174);</v>
       </c>
     </row>
-    <row r="175" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F175">
         <v>175</v>
       </c>
@@ -20594,7 +20595,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(87,175);</v>
       </c>
     </row>
-    <row r="176" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F176">
         <v>176</v>
       </c>
@@ -20636,7 +20637,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(88,176);</v>
       </c>
     </row>
-    <row r="177" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F177">
         <v>177</v>
       </c>
@@ -20678,7 +20679,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(89,177);</v>
       </c>
     </row>
-    <row r="178" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F178">
         <v>178</v>
       </c>
@@ -20720,7 +20721,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(90,178);</v>
       </c>
     </row>
-    <row r="179" spans="6:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="6:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F179">
         <v>179</v>
       </c>
@@ -20762,7 +20763,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(91,179);</v>
       </c>
     </row>
-    <row r="180" spans="6:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="6:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F180">
         <v>180</v>
       </c>
@@ -20792,7 +20793,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(92,180);</v>
       </c>
     </row>
-    <row r="181" spans="6:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="6:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F181">
         <v>181</v>
       </c>
@@ -20822,7 +20823,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(80,181);</v>
       </c>
     </row>
-    <row r="182" spans="6:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="6:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F182">
         <v>182</v>
       </c>
@@ -20852,7 +20853,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(81,182);</v>
       </c>
     </row>
-    <row r="183" spans="6:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="6:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F183">
         <v>183</v>
       </c>
@@ -20882,7 +20883,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(82,183);</v>
       </c>
     </row>
-    <row r="184" spans="6:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="6:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F184">
         <v>184</v>
       </c>
@@ -20912,7 +20913,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(83,184);</v>
       </c>
     </row>
-    <row r="185" spans="6:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="6:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F185">
         <v>185</v>
       </c>
@@ -20942,7 +20943,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(84,185);</v>
       </c>
     </row>
-    <row r="186" spans="6:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="6:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F186">
         <v>186</v>
       </c>
@@ -20972,7 +20973,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(85,186);</v>
       </c>
     </row>
-    <row r="187" spans="6:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="6:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F187">
         <v>187</v>
       </c>
@@ -21002,7 +21003,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(86,187);</v>
       </c>
     </row>
-    <row r="188" spans="6:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="6:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F188">
         <v>188</v>
       </c>
@@ -21032,7 +21033,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(87,188);</v>
       </c>
     </row>
-    <row r="189" spans="6:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="6:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F189">
         <v>189</v>
       </c>
@@ -21062,7 +21063,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(88,189);</v>
       </c>
     </row>
-    <row r="190" spans="6:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="6:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F190">
         <v>190</v>
       </c>
@@ -21092,7 +21093,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(89,190);</v>
       </c>
     </row>
-    <row r="191" spans="6:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="6:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F191">
         <v>191</v>
       </c>
@@ -21122,7 +21123,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(90,191);</v>
       </c>
     </row>
-    <row r="192" spans="6:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="6:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F192">
         <v>192</v>
       </c>
@@ -21152,7 +21153,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(91,192);</v>
       </c>
     </row>
-    <row r="193" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F193">
         <v>193</v>
       </c>
@@ -21182,7 +21183,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(92,193);</v>
       </c>
     </row>
-    <row r="194" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F194">
         <v>194</v>
       </c>
@@ -21212,7 +21213,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(120,194);</v>
       </c>
     </row>
-    <row r="195" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F195">
         <v>195</v>
       </c>
@@ -21242,7 +21243,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(121,195);</v>
       </c>
     </row>
-    <row r="196" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F196">
         <v>196</v>
       </c>
@@ -21272,7 +21273,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(122,196);</v>
       </c>
     </row>
-    <row r="197" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F197">
         <v>197</v>
       </c>
@@ -21302,7 +21303,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(123,197);</v>
       </c>
     </row>
-    <row r="198" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F198">
         <v>198</v>
       </c>
@@ -21332,7 +21333,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(124,198);</v>
       </c>
     </row>
-    <row r="199" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F199">
         <v>199</v>
       </c>
@@ -21362,7 +21363,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(125,199);</v>
       </c>
     </row>
-    <row r="200" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F200">
         <v>200</v>
       </c>
@@ -21392,7 +21393,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(126,200);</v>
       </c>
     </row>
-    <row r="201" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F201">
         <v>201</v>
       </c>
@@ -21422,7 +21423,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(127,201);</v>
       </c>
     </row>
-    <row r="202" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F202">
         <v>202</v>
       </c>
@@ -21452,7 +21453,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(128,202);</v>
       </c>
     </row>
-    <row r="203" spans="6:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="6:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F203">
         <v>203</v>
       </c>
@@ -21482,7 +21483,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(129,203);</v>
       </c>
     </row>
-    <row r="204" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F204">
         <v>204</v>
       </c>
@@ -21512,7 +21513,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(130,204);</v>
       </c>
     </row>
-    <row r="205" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F205">
         <v>205</v>
       </c>
@@ -21542,7 +21543,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(131,205);</v>
       </c>
     </row>
-    <row r="206" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F206">
         <v>206</v>
       </c>
@@ -21572,7 +21573,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(132,206);</v>
       </c>
     </row>
-    <row r="207" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F207">
         <v>207</v>
       </c>
@@ -21602,7 +21603,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(133,207);</v>
       </c>
     </row>
-    <row r="208" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F208">
         <v>208</v>
       </c>
@@ -21631,7 +21632,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(120,208);</v>
       </c>
     </row>
-    <row r="209" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F209">
         <v>209</v>
       </c>
@@ -21660,7 +21661,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(176,209);</v>
       </c>
     </row>
-    <row r="210" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F210">
         <v>210</v>
       </c>
@@ -21689,7 +21690,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(177,210);</v>
       </c>
     </row>
-    <row r="211" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F211">
         <v>211</v>
       </c>
@@ -21718,7 +21719,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(8,211);</v>
       </c>
     </row>
-    <row r="212" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F212">
         <v>212</v>
       </c>
@@ -21747,7 +21748,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(13,212);</v>
       </c>
     </row>
-    <row r="213" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F213">
         <v>213</v>
       </c>
@@ -21776,7 +21777,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(15,213);</v>
       </c>
     </row>
-    <row r="214" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F214">
         <v>214</v>
       </c>
@@ -21805,7 +21806,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(17,214);</v>
       </c>
     </row>
-    <row r="215" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F215">
         <v>215</v>
       </c>
@@ -21834,7 +21835,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(19,215);</v>
       </c>
     </row>
-    <row r="216" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F216">
         <v>216</v>
       </c>
@@ -21863,7 +21864,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(22,216);</v>
       </c>
     </row>
-    <row r="217" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F217">
         <v>217</v>
       </c>
@@ -21892,7 +21893,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(2,217);</v>
       </c>
     </row>
-    <row r="218" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F218">
         <v>218</v>
       </c>
@@ -21921,7 +21922,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(3,218);</v>
       </c>
     </row>
-    <row r="219" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F219">
         <v>219</v>
       </c>
@@ -21950,7 +21951,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(99,219);</v>
       </c>
     </row>
-    <row r="220" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F220">
         <v>220</v>
       </c>
@@ -21979,7 +21980,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(100,220);</v>
       </c>
     </row>
-    <row r="221" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F221">
         <v>221</v>
       </c>
@@ -22008,7 +22009,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(73,221);</v>
       </c>
     </row>
-    <row r="222" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F222">
         <v>222</v>
       </c>
@@ -22037,7 +22038,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(102,222);</v>
       </c>
     </row>
-    <row r="223" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F223">
         <v>223</v>
       </c>
@@ -22066,7 +22067,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(102,223);</v>
       </c>
     </row>
-    <row r="224" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F224">
         <v>224</v>
       </c>
@@ -22095,7 +22096,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(102,224);</v>
       </c>
     </row>
-    <row r="225" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F225">
         <v>225</v>
       </c>
@@ -22124,7 +22125,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(102,225);</v>
       </c>
     </row>
-    <row r="226" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F226">
         <v>226</v>
       </c>
@@ -22153,7 +22154,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(102,226);</v>
       </c>
     </row>
-    <row r="227" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F227">
         <v>227</v>
       </c>
@@ -22182,7 +22183,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(102,227);</v>
       </c>
     </row>
-    <row r="228" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F228">
         <v>228</v>
       </c>
@@ -22211,7 +22212,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(102,228);</v>
       </c>
     </row>
-    <row r="229" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F229">
         <v>229</v>
       </c>
@@ -22240,7 +22241,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(102,229);</v>
       </c>
     </row>
-    <row r="230" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F230">
         <v>230</v>
       </c>
@@ -22269,7 +22270,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(110,230);</v>
       </c>
     </row>
-    <row r="231" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F231">
         <v>231</v>
       </c>
@@ -22298,7 +22299,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(110,231);</v>
       </c>
     </row>
-    <row r="232" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F232">
         <v>232</v>
       </c>
@@ -22327,7 +22328,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(110,232);</v>
       </c>
     </row>
-    <row r="233" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F233">
         <v>233</v>
       </c>
@@ -22356,7 +22357,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(110,233);</v>
       </c>
     </row>
-    <row r="234" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F234">
         <v>234</v>
       </c>
@@ -22385,7 +22386,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(110,234);</v>
       </c>
     </row>
-    <row r="235" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F235">
         <v>235</v>
       </c>
@@ -22414,7 +22415,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(110,235);</v>
       </c>
     </row>
-    <row r="236" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F236">
         <v>236</v>
       </c>
@@ -22443,7 +22444,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(110,236);</v>
       </c>
     </row>
-    <row r="237" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F237">
         <v>237</v>
       </c>
@@ -22472,7 +22473,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(110,237);</v>
       </c>
     </row>
-    <row r="238" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F238">
         <v>238</v>
       </c>
@@ -22501,7 +22502,7 @@
         <v>insert into gta_Associations (idProjet,idPrestation) values(110,238);</v>
       </c>
     </row>
-    <row r="239" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F239">
         <v>239</v>
       </c>
@@ -22531,23 +22532,23 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:L239"/>
+  <autoFilter ref="F1:L239" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1311</v>
       </c>
@@ -22558,7 +22559,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -22570,7 +22571,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,1,1);</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
@@ -22582,7 +22583,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,2,1);</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>3</v>
       </c>
@@ -22594,7 +22595,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,3,1);</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>4</v>
       </c>
@@ -22606,7 +22607,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,4,1);</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>5</v>
       </c>
@@ -22618,7 +22619,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,5,1);</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>6</v>
       </c>
@@ -22630,7 +22631,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,6,1);</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>7</v>
       </c>
@@ -22642,7 +22643,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,7,1);</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>8</v>
       </c>
@@ -22654,7 +22655,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,8,1);</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>9</v>
       </c>
@@ -22666,7 +22667,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,9,1);</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>10</v>
       </c>
@@ -22678,7 +22679,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,10,1);</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>11</v>
       </c>
@@ -22690,7 +22691,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,11,1);</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>12</v>
       </c>
@@ -22702,7 +22703,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,12,1);</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>13</v>
       </c>
@@ -22714,7 +22715,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,13,1);</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>14</v>
       </c>
@@ -22726,7 +22727,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,14,1);</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>15</v>
       </c>
@@ -22738,7 +22739,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,15,1);</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>16</v>
       </c>
@@ -22750,7 +22751,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,16,1);</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>17</v>
       </c>
@@ -22762,7 +22763,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,17,1);</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>18</v>
       </c>
@@ -22774,7 +22775,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,18,1);</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>19</v>
       </c>
@@ -22786,7 +22787,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,19,1);</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>20</v>
       </c>
@@ -22798,7 +22799,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,20,1);</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>21</v>
       </c>
@@ -22810,7 +22811,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,21,1);</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>22</v>
       </c>
@@ -22822,7 +22823,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,22,1);</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>23</v>
       </c>
@@ -22834,7 +22835,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,23,1);</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>24</v>
       </c>
@@ -22846,7 +22847,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,24,1);</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>25</v>
       </c>
@@ -22858,7 +22859,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,25,1);</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>26</v>
       </c>
@@ -22870,7 +22871,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,26,1);</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>27</v>
       </c>
@@ -22882,7 +22883,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,27,1);</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>28</v>
       </c>
@@ -22894,7 +22895,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,28,1);</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>29</v>
       </c>
@@ -22906,7 +22907,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,29,1);</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>30</v>
       </c>
@@ -22918,7 +22919,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,30,1);</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>31</v>
       </c>
@@ -22930,7 +22931,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,31,1);</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>32</v>
       </c>
@@ -22942,7 +22943,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,32,1);</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>33</v>
       </c>
@@ -22954,7 +22955,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,33,1);</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>34</v>
       </c>
@@ -22966,7 +22967,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,34,1);</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>35</v>
       </c>
@@ -22978,7 +22979,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,35,1);</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>36</v>
       </c>
@@ -22990,7 +22991,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,36,1);</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>37</v>
       </c>
@@ -23002,7 +23003,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,37,1);</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>38</v>
       </c>
@@ -23014,7 +23015,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,38,1);</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>39</v>
       </c>
@@ -23026,7 +23027,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,39,1);</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>40</v>
       </c>
@@ -23038,7 +23039,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,40,1);</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>41</v>
       </c>
@@ -23050,7 +23051,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,41,1);</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>42</v>
       </c>
@@ -23062,7 +23063,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,42,1);</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>43</v>
       </c>
@@ -23074,7 +23075,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,43,1);</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>44</v>
       </c>
@@ -23086,7 +23087,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,44,1);</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>45</v>
       </c>
@@ -23098,7 +23099,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,45,1);</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>46</v>
       </c>
@@ -23110,7 +23111,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,46,1);</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>47</v>
       </c>
@@ -23122,7 +23123,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,47,1);</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>48</v>
       </c>
@@ -23134,7 +23135,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,48,1);</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>49</v>
       </c>
@@ -23146,7 +23147,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,49,1);</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>50</v>
       </c>
@@ -23158,7 +23159,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,50,1);</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>51</v>
       </c>
@@ -23170,7 +23171,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,51,1);</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>52</v>
       </c>
@@ -23182,7 +23183,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,52,1);</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>53</v>
       </c>
@@ -23194,7 +23195,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,53,1);</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>54</v>
       </c>
@@ -23206,7 +23207,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,54,1);</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>55</v>
       </c>
@@ -23218,7 +23219,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,55,1);</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>56</v>
       </c>
@@ -23230,7 +23231,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,56,1);</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>57</v>
       </c>
@@ -23242,7 +23243,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,57,1);</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>58</v>
       </c>
@@ -23254,7 +23255,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,58,1);</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>59</v>
       </c>
@@ -23266,7 +23267,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,59,1);</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>60</v>
       </c>
@@ -23278,7 +23279,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,60,1);</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>61</v>
       </c>
@@ -23290,7 +23291,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,61,1);</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>62</v>
       </c>
@@ -23302,7 +23303,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,62,1);</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>63</v>
       </c>
@@ -23314,7 +23315,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,63,1);</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>64</v>
       </c>
@@ -23326,7 +23327,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,64,1);</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>65</v>
       </c>
@@ -23338,7 +23339,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,65,1);</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>66</v>
       </c>
@@ -23350,7 +23351,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,66,1);</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>67</v>
       </c>
@@ -23362,7 +23363,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,67,1);</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>68</v>
       </c>
@@ -23374,7 +23375,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,68,1);</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>69</v>
       </c>
@@ -23386,7 +23387,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,69,1);</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>70</v>
       </c>
@@ -23398,7 +23399,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,70,1);</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>71</v>
       </c>
@@ -23410,7 +23411,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,71,1);</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>72</v>
       </c>
@@ -23422,7 +23423,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,72,1);</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>73</v>
       </c>
@@ -23434,7 +23435,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,73,1);</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>74</v>
       </c>
@@ -23446,7 +23447,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,74,1);</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>75</v>
       </c>
@@ -23458,7 +23459,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,75,1);</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77">
         <v>76</v>
       </c>
@@ -23470,7 +23471,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,76,1);</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B78">
         <v>77</v>
       </c>
@@ -23482,7 +23483,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,77,1);</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B79">
         <v>78</v>
       </c>
@@ -23494,7 +23495,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,78,1);</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>79</v>
       </c>
@@ -23506,7 +23507,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,79,1);</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>80</v>
       </c>
@@ -23518,7 +23519,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,80,1);</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>81</v>
       </c>
@@ -23530,7 +23531,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,81,1);</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>82</v>
       </c>
@@ -23542,7 +23543,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,82,1);</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>83</v>
       </c>
@@ -23554,7 +23555,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,83,1);</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85">
         <v>84</v>
       </c>
@@ -23566,7 +23567,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,84,1);</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B86">
         <v>85</v>
       </c>
@@ -23578,7 +23579,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,85,1);</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B87">
         <v>86</v>
       </c>
@@ -23590,7 +23591,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,86,1);</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88">
         <v>87</v>
       </c>
@@ -23602,7 +23603,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,87,1);</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B89">
         <v>88</v>
       </c>
@@ -23614,7 +23615,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,88,1);</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90">
         <v>89</v>
       </c>
@@ -23626,7 +23627,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,89,1);</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91">
         <v>90</v>
       </c>
@@ -23638,7 +23639,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,90,1);</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92">
         <v>91</v>
       </c>
@@ -23650,7 +23651,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,91,1);</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93">
         <v>92</v>
       </c>
@@ -23662,7 +23663,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,92,1);</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>93</v>
       </c>
@@ -23674,7 +23675,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,93,1);</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95">
         <v>94</v>
       </c>
@@ -23686,7 +23687,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,94,1);</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>95</v>
       </c>
@@ -23698,7 +23699,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,95,1);</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B97">
         <v>96</v>
       </c>
@@ -23710,7 +23711,7 @@
         <v>insert into gta_Preferences (`idPreference`, `idMotif`, `idPrestation`, `idProjet`, `idUO`, `idUtilisateur`, `idTypePrestation`) VALUES (null,null,1,null,null,96,1);</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>97</v>
       </c>
@@ -23728,7 +23729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:Q398"/>
   <sheetViews>
@@ -23736,9 +23737,9 @@
       <selection activeCell="N15" sqref="N15:Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>344</v>
       </c>
@@ -23773,7 +23774,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>346</v>
       </c>
@@ -23808,7 +23809,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>348</v>
       </c>
@@ -23843,7 +23844,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>350</v>
       </c>
@@ -23878,7 +23879,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>352</v>
       </c>
@@ -23913,7 +23914,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>354</v>
       </c>
@@ -23948,7 +23949,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>356</v>
       </c>
@@ -23983,7 +23984,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>358</v>
       </c>
@@ -24018,7 +24019,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>360</v>
       </c>
@@ -24053,7 +24054,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>362</v>
       </c>
@@ -24088,7 +24089,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>364</v>
       </c>
@@ -24123,7 +24124,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>366</v>
       </c>
@@ -24158,7 +24159,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>368</v>
       </c>
@@ -24193,7 +24194,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>370</v>
       </c>
@@ -24228,7 +24229,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>372</v>
       </c>
@@ -24266,7 +24267,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>374</v>
       </c>
@@ -24304,7 +24305,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>376</v>
       </c>
@@ -24342,7 +24343,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>378</v>
       </c>
@@ -24380,7 +24381,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>380</v>
       </c>
@@ -24418,7 +24419,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>382</v>
       </c>
@@ -24456,7 +24457,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>384</v>
       </c>
@@ -24488,7 +24489,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>386</v>
       </c>
@@ -24520,7 +24521,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>388</v>
       </c>
@@ -24552,7 +24553,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>390</v>
       </c>
@@ -24584,7 +24585,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>392</v>
       </c>
@@ -24613,7 +24614,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>394</v>
       </c>
@@ -24642,7 +24643,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>346</v>
       </c>
@@ -24671,7 +24672,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>396</v>
       </c>
@@ -24691,7 +24692,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>348</v>
       </c>
@@ -24711,7 +24712,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>350</v>
       </c>
@@ -24731,7 +24732,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>352</v>
       </c>
@@ -24751,7 +24752,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>354</v>
       </c>
@@ -24771,7 +24772,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>356</v>
       </c>
@@ -24791,7 +24792,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>398</v>
       </c>
@@ -24811,7 +24812,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>358</v>
       </c>
@@ -24831,7 +24832,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>360</v>
       </c>
@@ -24851,7 +24852,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>362</v>
       </c>
@@ -24871,7 +24872,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
         <v>400</v>
       </c>
@@ -24891,7 +24892,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
         <v>402</v>
       </c>
@@ -24911,7 +24912,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>364</v>
       </c>
@@ -24931,7 +24932,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
         <v>368</v>
       </c>
@@ -24951,7 +24952,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
         <v>374</v>
       </c>
@@ -24971,7 +24972,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
         <v>376</v>
       </c>
@@ -24991,7 +24992,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
         <v>378</v>
       </c>
@@ -25011,7 +25012,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
         <v>380</v>
       </c>
@@ -25031,7 +25032,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
         <v>404</v>
       </c>
@@ -25051,7 +25052,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
         <v>406</v>
       </c>
@@ -25071,7 +25072,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>382</v>
       </c>
@@ -25091,7 +25092,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
         <v>386</v>
       </c>
@@ -25111,7 +25112,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>388</v>
       </c>
@@ -25131,7 +25132,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
         <v>390</v>
       </c>
@@ -25151,7 +25152,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
         <v>392</v>
       </c>
@@ -25171,7 +25172,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
         <v>394</v>
       </c>
@@ -25191,7 +25192,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
         <v>346</v>
       </c>
@@ -25211,7 +25212,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
         <v>396</v>
       </c>
@@ -25225,7 +25226,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
         <v>348</v>
       </c>
@@ -25239,7 +25240,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
         <v>350</v>
       </c>
@@ -25253,7 +25254,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
         <v>354</v>
       </c>
@@ -25267,7 +25268,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
         <v>356</v>
       </c>
@@ -25281,7 +25282,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
         <v>358</v>
       </c>
@@ -25295,7 +25296,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
         <v>360</v>
       </c>
@@ -25309,7 +25310,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
         <v>362</v>
       </c>
@@ -25323,7 +25324,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
         <v>408</v>
       </c>
@@ -25337,7 +25338,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
         <v>400</v>
       </c>
@@ -25351,7 +25352,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
         <v>410</v>
       </c>
@@ -25365,7 +25366,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
         <v>364</v>
       </c>
@@ -25379,7 +25380,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
         <v>368</v>
       </c>
@@ -25393,7 +25394,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
         <v>370</v>
       </c>
@@ -25407,7 +25408,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
         <v>412</v>
       </c>
@@ -25421,7 +25422,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
         <v>372</v>
       </c>
@@ -25435,7 +25436,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
         <v>414</v>
       </c>
@@ -25449,7 +25450,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
         <v>416</v>
       </c>
@@ -25463,7 +25464,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
         <v>374</v>
       </c>
@@ -25477,7 +25478,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
         <v>380</v>
       </c>
@@ -25491,7 +25492,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="15" t="s">
         <v>404</v>
       </c>
@@ -25505,7 +25506,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="15" t="s">
         <v>382</v>
       </c>
@@ -25519,7 +25520,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
         <v>418</v>
       </c>
@@ -25533,7 +25534,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
         <v>384</v>
       </c>
@@ -25547,7 +25548,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
         <v>386</v>
       </c>
@@ -25561,7 +25562,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
         <v>390</v>
       </c>
@@ -25575,7 +25576,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="15" t="s">
         <v>392</v>
       </c>
@@ -25589,7 +25590,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
         <v>394</v>
       </c>
@@ -25603,7 +25604,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
         <v>346</v>
       </c>
@@ -25617,7 +25618,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
         <v>420</v>
       </c>
@@ -25631,7 +25632,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
         <v>350</v>
       </c>
@@ -25645,7 +25646,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
         <v>352</v>
       </c>
@@ -25659,7 +25660,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
         <v>354</v>
       </c>
@@ -25673,7 +25674,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="15" t="s">
         <v>422</v>
       </c>
@@ -25687,7 +25688,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
         <v>356</v>
       </c>
@@ -25701,7 +25702,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
         <v>358</v>
       </c>
@@ -25715,7 +25716,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
         <v>360</v>
       </c>
@@ -25729,7 +25730,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
         <v>362</v>
       </c>
@@ -25743,7 +25744,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
         <v>424</v>
       </c>
@@ -25757,7 +25758,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
         <v>408</v>
       </c>
@@ -25771,7 +25772,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
         <v>426</v>
       </c>
@@ -25785,7 +25786,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
         <v>400</v>
       </c>
@@ -25799,7 +25800,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
         <v>364</v>
       </c>
@@ -25813,7 +25814,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
         <v>368</v>
       </c>
@@ -25827,7 +25828,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
         <v>372</v>
       </c>
@@ -25841,7 +25842,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
         <v>380</v>
       </c>
@@ -25855,7 +25856,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
         <v>404</v>
       </c>
@@ -25869,7 +25870,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
         <v>406</v>
       </c>
@@ -25883,7 +25884,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
         <v>382</v>
       </c>
@@ -25897,7 +25898,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
         <v>384</v>
       </c>
@@ -25911,7 +25912,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="15" t="s">
         <v>386</v>
       </c>
@@ -25925,7 +25926,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
         <v>390</v>
       </c>
@@ -25939,7 +25940,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="15" t="s">
         <v>392</v>
       </c>
@@ -25953,7 +25954,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="15" t="s">
         <v>394</v>
       </c>
@@ -25967,7 +25968,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="15" t="s">
         <v>368</v>
       </c>
@@ -25981,7 +25982,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="15" t="s">
         <v>370</v>
       </c>
@@ -25995,7 +25996,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="15" t="s">
         <v>412</v>
       </c>
@@ -26009,7 +26010,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="15" t="s">
         <v>428</v>
       </c>
@@ -26023,7 +26024,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="15" t="s">
         <v>372</v>
       </c>
@@ -26037,7 +26038,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="15" t="s">
         <v>414</v>
       </c>
@@ -26051,7 +26052,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="15" t="s">
         <v>430</v>
       </c>
@@ -26065,7 +26066,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="15" t="s">
         <v>382</v>
       </c>
@@ -26079,7 +26080,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="15" t="s">
         <v>418</v>
       </c>
@@ -26093,7 +26094,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="15" t="s">
         <v>384</v>
       </c>
@@ -26107,7 +26108,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="15" t="s">
         <v>386</v>
       </c>
@@ -26121,7 +26122,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="15" t="s">
         <v>390</v>
       </c>
@@ -26135,7 +26136,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="15" t="s">
         <v>392</v>
       </c>
@@ -26149,7 +26150,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="15" t="s">
         <v>394</v>
       </c>
@@ -26163,7 +26164,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="15" t="s">
         <v>346</v>
       </c>
@@ -26177,7 +26178,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="15" t="s">
         <v>396</v>
       </c>
@@ -26191,7 +26192,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="15" t="s">
         <v>348</v>
       </c>
@@ -26205,7 +26206,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="15" t="s">
         <v>354</v>
       </c>
@@ -26219,7 +26220,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="15" t="s">
         <v>356</v>
       </c>
@@ -26233,7 +26234,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="15" t="s">
         <v>362</v>
       </c>
@@ -26247,7 +26248,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="15" t="s">
         <v>424</v>
       </c>
@@ -26261,7 +26262,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="15" t="s">
         <v>408</v>
       </c>
@@ -26275,7 +26276,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="15" t="s">
         <v>426</v>
       </c>
@@ -26289,7 +26290,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="15" t="s">
         <v>400</v>
       </c>
@@ -26303,7 +26304,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="15" t="s">
         <v>410</v>
       </c>
@@ -26317,7 +26318,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="15" t="s">
         <v>364</v>
       </c>
@@ -26331,7 +26332,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="15" t="s">
         <v>368</v>
       </c>
@@ -26345,7 +26346,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="15" t="s">
         <v>372</v>
       </c>
@@ -26359,7 +26360,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="15" t="s">
         <v>414</v>
       </c>
@@ -26373,7 +26374,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="15" t="s">
         <v>374</v>
       </c>
@@ -26387,7 +26388,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="15" t="s">
         <v>380</v>
       </c>
@@ -26401,7 +26402,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="15" t="s">
         <v>404</v>
       </c>
@@ -26415,7 +26416,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="15" t="s">
         <v>382</v>
       </c>
@@ -26429,7 +26430,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="15" t="s">
         <v>386</v>
       </c>
@@ -26443,7 +26444,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="15" t="s">
         <v>390</v>
       </c>
@@ -26457,7 +26458,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="15" t="s">
         <v>392</v>
       </c>
@@ -26471,7 +26472,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="15" t="s">
         <v>394</v>
       </c>
@@ -26485,7 +26486,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="15" t="s">
         <v>346</v>
       </c>
@@ -26499,7 +26500,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="15" t="s">
         <v>432</v>
       </c>
@@ -26513,7 +26514,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="15" t="s">
         <v>396</v>
       </c>
@@ -26527,7 +26528,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="15" t="s">
         <v>348</v>
       </c>
@@ -26541,7 +26542,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="15" t="s">
         <v>420</v>
       </c>
@@ -26555,7 +26556,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="15" t="s">
         <v>350</v>
       </c>
@@ -26569,7 +26570,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="15" t="s">
         <v>354</v>
       </c>
@@ -26583,7 +26584,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="15" t="s">
         <v>356</v>
       </c>
@@ -26597,7 +26598,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
         <v>434</v>
       </c>
@@ -26611,7 +26612,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
         <v>358</v>
       </c>
@@ -26625,7 +26626,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
         <v>360</v>
       </c>
@@ -26639,7 +26640,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
         <v>362</v>
       </c>
@@ -26653,7 +26654,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
         <v>436</v>
       </c>
@@ -26667,7 +26668,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="s">
         <v>400</v>
       </c>
@@ -26681,7 +26682,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
         <v>402</v>
       </c>
@@ -26695,7 +26696,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="15" t="s">
         <v>364</v>
       </c>
@@ -26709,7 +26710,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="15" t="s">
         <v>438</v>
       </c>
@@ -26723,7 +26724,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
         <v>368</v>
       </c>
@@ -26737,7 +26738,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="15" t="s">
         <v>414</v>
       </c>
@@ -26751,7 +26752,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="15" t="s">
         <v>416</v>
       </c>
@@ -26765,7 +26766,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="15" t="s">
         <v>374</v>
       </c>
@@ -26779,7 +26780,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="15" t="s">
         <v>430</v>
       </c>
@@ -26793,7 +26794,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="15" t="s">
         <v>440</v>
       </c>
@@ -26807,7 +26808,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
         <v>376</v>
       </c>
@@ -26821,7 +26822,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="15" t="s">
         <v>378</v>
       </c>
@@ -26835,7 +26836,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="15" t="s">
         <v>380</v>
       </c>
@@ -26849,7 +26850,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="15" t="s">
         <v>404</v>
       </c>
@@ -26863,7 +26864,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="15" t="s">
         <v>406</v>
       </c>
@@ -26877,7 +26878,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="15" t="s">
         <v>382</v>
       </c>
@@ -26891,7 +26892,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="15" t="s">
         <v>384</v>
       </c>
@@ -26905,7 +26906,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="15" t="s">
         <v>386</v>
       </c>
@@ -26919,7 +26920,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="15" t="s">
         <v>390</v>
       </c>
@@ -26933,7 +26934,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="15" t="s">
         <v>392</v>
       </c>
@@ -26947,7 +26948,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="15" t="s">
         <v>394</v>
       </c>
@@ -26961,7 +26962,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="15" t="s">
         <v>346</v>
       </c>
@@ -26975,7 +26976,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="15" t="s">
         <v>434</v>
       </c>
@@ -26989,7 +26990,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="15" t="s">
         <v>362</v>
       </c>
@@ -27003,7 +27004,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="15" t="s">
         <v>424</v>
       </c>
@@ -27017,7 +27018,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="15" t="s">
         <v>408</v>
       </c>
@@ -27031,7 +27032,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="15" t="s">
         <v>400</v>
       </c>
@@ -27045,7 +27046,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="s">
         <v>442</v>
       </c>
@@ -27059,7 +27060,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
         <v>370</v>
       </c>
@@ -27073,7 +27074,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
         <v>412</v>
       </c>
@@ -27087,7 +27088,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="15" t="s">
         <v>372</v>
       </c>
@@ -27101,7 +27102,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
         <v>414</v>
       </c>
@@ -27115,7 +27116,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="15" t="s">
         <v>376</v>
       </c>
@@ -27129,7 +27130,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="s">
         <v>378</v>
       </c>
@@ -27143,7 +27144,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
         <v>380</v>
       </c>
@@ -27157,7 +27158,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="15" t="s">
         <v>404</v>
       </c>
@@ -27171,7 +27172,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="15" t="s">
         <v>406</v>
       </c>
@@ -27185,7 +27186,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
         <v>382</v>
       </c>
@@ -27199,7 +27200,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
         <v>418</v>
       </c>
@@ -27213,7 +27214,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="15" t="s">
         <v>384</v>
       </c>
@@ -27227,7 +27228,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="15" t="s">
         <v>386</v>
       </c>
@@ -27241,7 +27242,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="15" t="s">
         <v>390</v>
       </c>
@@ -27255,7 +27256,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="15" t="s">
         <v>392</v>
       </c>
@@ -27269,7 +27270,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="15" t="s">
         <v>394</v>
       </c>
@@ -27283,7 +27284,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="15" t="s">
         <v>394</v>
       </c>
@@ -27297,7 +27298,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="15" t="s">
         <v>354</v>
       </c>
@@ -27311,7 +27312,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="15" t="s">
         <v>368</v>
       </c>
@@ -27325,7 +27326,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="15" t="s">
         <v>370</v>
       </c>
@@ -27339,7 +27340,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="15" t="s">
         <v>382</v>
       </c>
@@ -27353,7 +27354,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="15" t="s">
         <v>418</v>
       </c>
@@ -27367,7 +27368,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="15" t="s">
         <v>386</v>
       </c>
@@ -27381,7 +27382,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="15" t="s">
         <v>390</v>
       </c>
@@ -27395,7 +27396,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="15" t="s">
         <v>392</v>
       </c>
@@ -27409,7 +27410,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="15" t="s">
         <v>394</v>
       </c>
@@ -27423,7 +27424,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="15" t="s">
         <v>346</v>
       </c>
@@ -27437,7 +27438,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="15" t="s">
         <v>348</v>
       </c>
@@ -27451,7 +27452,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="15" t="s">
         <v>420</v>
       </c>
@@ -27465,7 +27466,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="15" t="s">
         <v>350</v>
       </c>
@@ -27479,7 +27480,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="15" t="s">
         <v>352</v>
       </c>
@@ -27493,7 +27494,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="15" t="s">
         <v>354</v>
       </c>
@@ -27507,7 +27508,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="15" t="s">
         <v>356</v>
       </c>
@@ -27521,7 +27522,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="15" t="s">
         <v>360</v>
       </c>
@@ -27535,7 +27536,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="15" t="s">
         <v>424</v>
       </c>
@@ -27549,7 +27550,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="15" t="s">
         <v>408</v>
       </c>
@@ -27563,7 +27564,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="15" t="s">
         <v>436</v>
       </c>
@@ -27577,7 +27578,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="15" t="s">
         <v>426</v>
       </c>
@@ -27591,7 +27592,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="15" t="s">
         <v>438</v>
       </c>
@@ -27605,7 +27606,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="15" t="s">
         <v>368</v>
       </c>
@@ -27619,7 +27620,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="15" t="s">
         <v>370</v>
       </c>
@@ -27633,7 +27634,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="15" t="s">
         <v>428</v>
       </c>
@@ -27647,7 +27648,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="15" t="s">
         <v>372</v>
       </c>
@@ -27661,7 +27662,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="15" t="s">
         <v>404</v>
       </c>
@@ -27675,7 +27676,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="15" t="s">
         <v>406</v>
       </c>
@@ -27689,7 +27690,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="15" t="s">
         <v>418</v>
       </c>
@@ -27703,7 +27704,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="15" t="s">
         <v>386</v>
       </c>
@@ -27717,7 +27718,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="15" t="s">
         <v>390</v>
       </c>
@@ -27731,7 +27732,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="15" t="s">
         <v>392</v>
       </c>
@@ -27745,7 +27746,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="15" t="s">
         <v>394</v>
       </c>
@@ -27759,7 +27760,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="15" t="s">
         <v>346</v>
       </c>
@@ -27773,7 +27774,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="15" t="s">
         <v>396</v>
       </c>
@@ -27787,7 +27788,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="15" t="s">
         <v>350</v>
       </c>
@@ -27801,7 +27802,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="15" t="s">
         <v>352</v>
       </c>
@@ -27815,7 +27816,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="15" t="s">
         <v>358</v>
       </c>
@@ -27829,7 +27830,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="15" t="s">
         <v>402</v>
       </c>
@@ -27843,7 +27844,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="15" t="s">
         <v>444</v>
       </c>
@@ -27857,7 +27858,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="15" t="s">
         <v>442</v>
       </c>
@@ -27871,7 +27872,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="15" t="s">
         <v>368</v>
       </c>
@@ -27885,7 +27886,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="15" t="s">
         <v>370</v>
       </c>
@@ -27899,7 +27900,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="15" t="s">
         <v>412</v>
       </c>
@@ -27913,7 +27914,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="15" t="s">
         <v>428</v>
       </c>
@@ -27927,7 +27928,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="15" t="s">
         <v>384</v>
       </c>
@@ -27941,7 +27942,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="15" t="s">
         <v>386</v>
       </c>
@@ -27955,7 +27956,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="15" t="s">
         <v>388</v>
       </c>
@@ -27969,7 +27970,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="15" t="s">
         <v>390</v>
       </c>
@@ -27983,7 +27984,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="15" t="s">
         <v>392</v>
       </c>
@@ -27997,7 +27998,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="15" t="s">
         <v>394</v>
       </c>
@@ -28011,7 +28012,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="15" t="s">
         <v>362</v>
       </c>
@@ -28025,7 +28026,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="15" t="s">
         <v>400</v>
       </c>
@@ -28039,7 +28040,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="15" t="s">
         <v>410</v>
       </c>
@@ -28053,7 +28054,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="15" t="s">
         <v>402</v>
       </c>
@@ -28067,7 +28068,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="15" t="s">
         <v>364</v>
       </c>
@@ -28081,7 +28082,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" s="15" t="s">
         <v>442</v>
       </c>
@@ -28095,7 +28096,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" s="15" t="s">
         <v>366</v>
       </c>
@@ -28109,7 +28110,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="15" t="s">
         <v>368</v>
       </c>
@@ -28123,7 +28124,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" s="15" t="s">
         <v>372</v>
       </c>
@@ -28137,7 +28138,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="15" t="s">
         <v>414</v>
       </c>
@@ -28151,7 +28152,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="15" t="s">
         <v>416</v>
       </c>
@@ -28165,7 +28166,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" s="15" t="s">
         <v>374</v>
       </c>
@@ -28179,7 +28180,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" s="15" t="s">
         <v>404</v>
       </c>
@@ -28193,7 +28194,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" s="15" t="s">
         <v>382</v>
       </c>
@@ -28207,7 +28208,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" s="15" t="s">
         <v>418</v>
       </c>
@@ -28221,7 +28222,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="15" t="s">
         <v>386</v>
       </c>
@@ -28235,7 +28236,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="15" t="s">
         <v>390</v>
       </c>
@@ -28249,7 +28250,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" s="15" t="s">
         <v>392</v>
       </c>
@@ -28263,7 +28264,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" s="15" t="s">
         <v>394</v>
       </c>
@@ -28277,7 +28278,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" s="15" t="s">
         <v>346</v>
       </c>
@@ -28291,7 +28292,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" s="15" t="s">
         <v>396</v>
       </c>
@@ -28305,7 +28306,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" s="15" t="s">
         <v>348</v>
       </c>
@@ -28319,7 +28320,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" s="15" t="s">
         <v>350</v>
       </c>
@@ -28333,7 +28334,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" s="15" t="s">
         <v>354</v>
       </c>
@@ -28347,7 +28348,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="15" t="s">
         <v>356</v>
       </c>
@@ -28361,7 +28362,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" s="15" t="s">
         <v>446</v>
       </c>
@@ -28375,7 +28376,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="15" t="s">
         <v>360</v>
       </c>
@@ -28389,7 +28390,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" s="15" t="s">
         <v>362</v>
       </c>
@@ -28403,7 +28404,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" s="15" t="s">
         <v>368</v>
       </c>
@@ -28417,7 +28418,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" s="15" t="s">
         <v>370</v>
       </c>
@@ -28431,7 +28432,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" s="15" t="s">
         <v>414</v>
       </c>
@@ -28445,7 +28446,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" s="15" t="s">
         <v>374</v>
       </c>
@@ -28459,7 +28460,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="15" t="s">
         <v>380</v>
       </c>
@@ -28473,7 +28474,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" s="15" t="s">
         <v>404</v>
       </c>
@@ -28487,7 +28488,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="15" t="s">
         <v>382</v>
       </c>
@@ -28501,7 +28502,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" s="15" t="s">
         <v>386</v>
       </c>
@@ -28515,7 +28516,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" s="15" t="s">
         <v>388</v>
       </c>
@@ -28529,7 +28530,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" s="15" t="s">
         <v>390</v>
       </c>
@@ -28543,7 +28544,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" s="15" t="s">
         <v>392</v>
       </c>
@@ -28557,7 +28558,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" s="15" t="s">
         <v>394</v>
       </c>
@@ -28571,7 +28572,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="15" t="s">
         <v>346</v>
       </c>
@@ -28585,7 +28586,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" s="15" t="s">
         <v>350</v>
       </c>
@@ -28599,7 +28600,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="15" t="s">
         <v>352</v>
       </c>
@@ -28613,7 +28614,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" s="15" t="s">
         <v>354</v>
       </c>
@@ -28627,7 +28628,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" s="15" t="s">
         <v>356</v>
       </c>
@@ -28641,7 +28642,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" s="15" t="s">
         <v>360</v>
       </c>
@@ -28655,7 +28656,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" s="15" t="s">
         <v>362</v>
       </c>
@@ -28669,7 +28670,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" s="15" t="s">
         <v>400</v>
       </c>
@@ -28683,7 +28684,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="15" t="s">
         <v>402</v>
       </c>
@@ -28697,7 +28698,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="15" t="s">
         <v>368</v>
       </c>
@@ -28711,7 +28712,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" s="15" t="s">
         <v>370</v>
       </c>
@@ -28725,7 +28726,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" s="15" t="s">
         <v>412</v>
       </c>
@@ -28739,7 +28740,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" s="15" t="s">
         <v>428</v>
       </c>
@@ -28753,7 +28754,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" s="15" t="s">
         <v>372</v>
       </c>
@@ -28767,7 +28768,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" s="15" t="s">
         <v>414</v>
       </c>
@@ -28781,7 +28782,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" s="15" t="s">
         <v>416</v>
       </c>
@@ -28795,7 +28796,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" s="15" t="s">
         <v>374</v>
       </c>
@@ -28809,7 +28810,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" s="15" t="s">
         <v>430</v>
       </c>
@@ -28823,7 +28824,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" s="15" t="s">
         <v>440</v>
       </c>
@@ -28837,7 +28838,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" s="15" t="s">
         <v>376</v>
       </c>
@@ -28851,7 +28852,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" s="15" t="s">
         <v>380</v>
       </c>
@@ -28865,7 +28866,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" s="15" t="s">
         <v>404</v>
       </c>
@@ -28879,7 +28880,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" s="15" t="s">
         <v>406</v>
       </c>
@@ -28893,7 +28894,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" s="15" t="s">
         <v>382</v>
       </c>
@@ -28907,7 +28908,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" s="15" t="s">
         <v>384</v>
       </c>
@@ -28921,7 +28922,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" s="15" t="s">
         <v>386</v>
       </c>
@@ -28935,7 +28936,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" s="15" t="s">
         <v>390</v>
       </c>
@@ -28949,7 +28950,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" s="15" t="s">
         <v>392</v>
       </c>
@@ -28963,7 +28964,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" s="15" t="s">
         <v>394</v>
       </c>
@@ -28977,7 +28978,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" s="15" t="s">
         <v>448</v>
       </c>
@@ -28991,7 +28992,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" s="15" t="s">
         <v>346</v>
       </c>
@@ -29005,7 +29006,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" s="15" t="s">
         <v>396</v>
       </c>
@@ -29019,7 +29020,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327" s="15" t="s">
         <v>348</v>
       </c>
@@ -29033,7 +29034,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" s="15" t="s">
         <v>356</v>
       </c>
@@ -29047,7 +29048,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" s="15" t="s">
         <v>358</v>
       </c>
@@ -29061,7 +29062,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" s="15" t="s">
         <v>362</v>
       </c>
@@ -29075,7 +29076,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" s="15" t="s">
         <v>424</v>
       </c>
@@ -29089,7 +29090,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" s="15" t="s">
         <v>408</v>
       </c>
@@ -29103,7 +29104,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" s="15" t="s">
         <v>426</v>
       </c>
@@ -29117,7 +29118,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" s="15" t="s">
         <v>400</v>
       </c>
@@ -29131,7 +29132,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" s="15" t="s">
         <v>366</v>
       </c>
@@ -29145,7 +29146,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" s="15" t="s">
         <v>368</v>
       </c>
@@ -29159,7 +29160,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" s="15" t="s">
         <v>370</v>
       </c>
@@ -29173,7 +29174,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" s="15" t="s">
         <v>412</v>
       </c>
@@ -29187,7 +29188,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" s="15" t="s">
         <v>414</v>
       </c>
@@ -29201,7 +29202,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" s="15" t="s">
         <v>374</v>
       </c>
@@ -29215,7 +29216,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" s="15" t="s">
         <v>430</v>
       </c>
@@ -29229,7 +29230,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" s="15" t="s">
         <v>380</v>
       </c>
@@ -29243,7 +29244,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" s="15" t="s">
         <v>404</v>
       </c>
@@ -29257,7 +29258,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" s="15" t="s">
         <v>382</v>
       </c>
@@ -29271,7 +29272,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" s="15" t="s">
         <v>418</v>
       </c>
@@ -29285,7 +29286,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" s="15" t="s">
         <v>384</v>
       </c>
@@ -29299,7 +29300,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" s="15" t="s">
         <v>386</v>
       </c>
@@ -29313,7 +29314,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" s="15" t="s">
         <v>388</v>
       </c>
@@ -29327,7 +29328,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" s="15" t="s">
         <v>390</v>
       </c>
@@ -29341,7 +29342,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" s="15" t="s">
         <v>392</v>
       </c>
@@ -29355,7 +29356,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" s="15" t="s">
         <v>394</v>
       </c>
@@ -29369,7 +29370,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" s="15" t="s">
         <v>368</v>
       </c>
@@ -29383,7 +29384,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353" s="15" t="s">
         <v>370</v>
       </c>
@@ -29397,7 +29398,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354" s="15" t="s">
         <v>374</v>
       </c>
@@ -29411,7 +29412,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" s="15" t="s">
         <v>382</v>
       </c>
@@ -29425,7 +29426,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356" s="15" t="s">
         <v>386</v>
       </c>
@@ -29439,7 +29440,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" s="15" t="s">
         <v>390</v>
       </c>
@@ -29453,7 +29454,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358" s="15" t="s">
         <v>392</v>
       </c>
@@ -29467,7 +29468,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359" s="15" t="s">
         <v>394</v>
       </c>
@@ -29481,7 +29482,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" s="15" t="s">
         <v>400</v>
       </c>
@@ -29495,7 +29496,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" s="15" t="s">
         <v>368</v>
       </c>
@@ -29509,7 +29510,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362" s="15" t="s">
         <v>370</v>
       </c>
@@ -29523,7 +29524,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363" s="15" t="s">
         <v>414</v>
       </c>
@@ -29537,7 +29538,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364" s="15" t="s">
         <v>382</v>
       </c>
@@ -29551,7 +29552,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365" s="15" t="s">
         <v>418</v>
       </c>
@@ -29565,7 +29566,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366" s="15" t="s">
         <v>384</v>
       </c>
@@ -29579,7 +29580,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367" s="15" t="s">
         <v>386</v>
       </c>
@@ -29593,7 +29594,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368" s="15" t="s">
         <v>390</v>
       </c>
@@ -29607,7 +29608,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369" s="15" t="s">
         <v>392</v>
       </c>
@@ -29621,7 +29622,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370" s="15" t="s">
         <v>394</v>
       </c>
@@ -29635,7 +29636,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371" s="15" t="s">
         <v>346</v>
       </c>
@@ -29649,7 +29650,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372" s="15" t="s">
         <v>348</v>
       </c>
@@ -29663,7 +29664,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373" s="15" t="s">
         <v>350</v>
       </c>
@@ -29677,7 +29678,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374" s="15" t="s">
         <v>352</v>
       </c>
@@ -29691,7 +29692,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375" s="15" t="s">
         <v>354</v>
       </c>
@@ -29705,7 +29706,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376" s="15" t="s">
         <v>362</v>
       </c>
@@ -29719,7 +29720,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377" s="15" t="s">
         <v>424</v>
       </c>
@@ -29733,7 +29734,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378" s="15" t="s">
         <v>408</v>
       </c>
@@ -29747,7 +29748,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379" s="15" t="s">
         <v>450</v>
       </c>
@@ -29761,7 +29762,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380" s="15" t="s">
         <v>426</v>
       </c>
@@ -29775,7 +29776,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381" s="15" t="s">
         <v>402</v>
       </c>
@@ -29789,7 +29790,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382" s="15" t="s">
         <v>364</v>
       </c>
@@ -29803,7 +29804,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383" s="15" t="s">
         <v>442</v>
       </c>
@@ -29817,7 +29818,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384" s="15" t="s">
         <v>368</v>
       </c>
@@ -29831,7 +29832,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385" s="15" t="s">
         <v>370</v>
       </c>
@@ -29845,7 +29846,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386" s="15" t="s">
         <v>412</v>
       </c>
@@ -29859,7 +29860,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387" s="15" t="s">
         <v>428</v>
       </c>
@@ -29873,7 +29874,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388" s="15" t="s">
         <v>372</v>
       </c>
@@ -29887,7 +29888,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389" s="15" t="s">
         <v>414</v>
       </c>
@@ -29901,7 +29902,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390" s="15" t="s">
         <v>380</v>
       </c>
@@ -29915,7 +29916,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391" s="15" t="s">
         <v>404</v>
       </c>
@@ -29929,7 +29930,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392" s="15" t="s">
         <v>382</v>
       </c>
@@ -29943,7 +29944,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393" s="15" t="s">
         <v>384</v>
       </c>
@@ -29957,7 +29958,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394" s="15" t="s">
         <v>386</v>
       </c>
@@ -29971,7 +29972,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395" s="15" t="s">
         <v>388</v>
       </c>
@@ -29985,7 +29986,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396" s="15" t="s">
         <v>390</v>
       </c>
@@ -29999,7 +30000,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397" s="15" t="s">
         <v>392</v>
       </c>
@@ -30013,7 +30014,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398" s="15" t="s">
         <v>394</v>
       </c>
@@ -30028,7 +30029,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="D2:E398">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:E398">
     <sortCondition ref="D2:D398"/>
   </sortState>
   <conditionalFormatting sqref="B2:B246 A2:A398">
@@ -30056,19 +30057,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G98" sqref="G2:G98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1150</v>
       </c>
@@ -30082,7 +30083,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -30107,7 +30108,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,1,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -30132,7 +30133,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,2,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -30157,7 +30158,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,3,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -30182,7 +30183,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,4,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -30207,7 +30208,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,5,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -30232,7 +30233,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,6,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -30257,7 +30258,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,7,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -30282,7 +30283,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,8,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -30307,7 +30308,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,9,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -30332,7 +30333,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,10,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -30357,7 +30358,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,11,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -30382,7 +30383,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,12,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -30407,7 +30408,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,13,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -30432,7 +30433,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,14,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -30457,7 +30458,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,15,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -30482,7 +30483,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,16,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -30507,7 +30508,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,17,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -30532,7 +30533,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,18,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -30557,7 +30558,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,19,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -30582,7 +30583,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,20,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -30607,7 +30608,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (21,21,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -30632,7 +30633,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,22,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -30657,7 +30658,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,23,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -30682,7 +30683,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,24,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -30707,7 +30708,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,25,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -30732,7 +30733,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,26,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -30757,7 +30758,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,27,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -30782,7 +30783,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,28,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -30807,7 +30808,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,29,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -30832,7 +30833,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,30,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -30857,7 +30858,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,31,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -30882,7 +30883,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,32,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -30907,7 +30908,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,33,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -30932,7 +30933,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,34,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -30957,7 +30958,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,35,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -30982,7 +30983,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,36,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -31007,7 +31008,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,37,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -31032,7 +31033,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,38,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -31057,7 +31058,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,39,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -31082,7 +31083,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,40,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -31107,7 +31108,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,41,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -31132,7 +31133,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,42,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -31157,7 +31158,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,43,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -31182,7 +31183,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,44,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -31207,7 +31208,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,45,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -31232,7 +31233,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,46,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -31257,7 +31258,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,47,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -31282,7 +31283,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,48,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -31307,7 +31308,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,49,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -31332,7 +31333,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,50,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -31357,7 +31358,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,51,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -31382,7 +31383,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,52,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -31407,7 +31408,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,53,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -31432,7 +31433,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,54,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -31457,7 +31458,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,55,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -31482,7 +31483,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,56,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -31507,7 +31508,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,57,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -31532,7 +31533,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (20,58,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -31557,7 +31558,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,59,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -31582,7 +31583,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,60,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -31607,7 +31608,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,61,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -31632,7 +31633,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,62,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -31657,7 +31658,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,63,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -31682,7 +31683,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,64,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -31707,7 +31708,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,65,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -31732,7 +31733,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,66,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -31757,7 +31758,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,67,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -31782,7 +31783,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,68,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -31807,7 +31808,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,69,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -31832,7 +31833,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,70,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -31857,7 +31858,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,71,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -31882,7 +31883,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,72,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -31907,7 +31908,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,73,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -31932,7 +31933,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,74,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -31957,7 +31958,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,75,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -31982,7 +31983,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,76,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -32007,7 +32008,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,77,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -32032,7 +32033,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,78,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -32057,7 +32058,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,79,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -32082,7 +32083,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,80,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -32107,7 +32108,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,81,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -32132,7 +32133,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,82,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -32157,7 +32158,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,83,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -32182,7 +32183,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,84,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -32207,7 +32208,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,85,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -32232,7 +32233,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,86,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -32257,7 +32258,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (21,87,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -32282,7 +32283,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,88,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -32307,7 +32308,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (21,89,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -32332,7 +32333,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,90,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -32357,7 +32358,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,91,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -32382,7 +32383,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,92,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -32407,7 +32408,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,93,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -32432,7 +32433,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (3,94,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -32457,7 +32458,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,95,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -32482,7 +32483,7 @@
         <v>insert into gta_Contrats (idCentre,idUtilisateur,dateDebutContrat,dateFinContrat) Values (15,96,"2023-01-01","2099-12-31");</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -32508,7 +32509,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F99"/>
+  <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
